--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -10,14 +10,14 @@
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
     <sheet name="20170716" sheetId="1" r:id="rId2"/>
     <sheet name="20170717" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="20170718" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,23 +183,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖刀姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合工大 宣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>决意的吉复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千宸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙妙喵喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languyie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,12 +288,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -574,8 +613,8 @@
         <v>40</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!J6+'20170717'!J9</f>
-        <v>59.55</v>
+        <f>'20170716'!K6+'20170717'!K8</f>
+        <v>71.55</v>
       </c>
     </row>
   </sheetData>
@@ -586,19 +625,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,29 +648,32 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -640,56 +682,62 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.94027777777777777</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.42083333333333334</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -698,63 +746,73 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>6.5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.40416666666666662</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>45.55</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.95694444444444438</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>45.55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="J6" s="3">
-        <f>SUM(J2:J5)</f>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K6" s="3">
+        <f>SUM(K2:K5)</f>
         <v>53.05</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -763,19 +821,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -786,29 +844,32 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -817,76 +878,87 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>6.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.3430555555555555</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="H3" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -895,109 +967,100 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="J9" s="1">
-        <f>SUM(J2:J7)</f>
-        <v>6.5</v>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K8" s="1">
+        <f>SUM(K2:K7)</f>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1006,13 +1069,263 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K9" s="1">
+        <f>SUM(K2:K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,14 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合工大 宣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决意的吉复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>枫君</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +224,30 @@
   </si>
   <si>
     <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花屋敷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツカサ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天白送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源氏会社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生七杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +315,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -614,7 +630,7 @@
       </c>
       <c r="B1" s="1">
         <f>'20170716'!K6+'20170717'!K8</f>
-        <v>71.55</v>
+        <v>63.55</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -823,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -844,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -853,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -940,22 +956,28 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1000,7 +1022,9 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1010,31 +1034,35 @@
       <c r="G6" s="1">
         <v>4.5</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="2">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1051,9 +1079,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f>SUM(K2:K7)</f>
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -1071,9 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1081,6 +1107,7 @@
     <col min="2" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -1094,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1119,11 +1146,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1132,25 +1159,25 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1159,83 +1186,81 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>52</v>
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1287,9 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1273,25 +1300,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1319,11 +1346,16 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K9" s="1">
-        <f>SUM(K2:K6)</f>
+        <f>SUM(K3:K6)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="20170717" sheetId="4" r:id="rId3"/>
     <sheet name="20170718" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,59 +103,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一目连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼岸花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼爱你哟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因菓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝贝，请杀Ren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snh48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenpupil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入/支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互相伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺亚大腹灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千宸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙妙喵喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languyie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一目连</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼岸花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼爱你哟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kelin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因菓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝贝，请杀Ren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snh48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wenpupil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入/支出</t>
+    <t>花屋敷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツカサ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源氏会社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生七杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,23 +247,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互相伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺亚大腹灰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总收入</t>
+    <t>王都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分钟绝望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,67 +275,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阎魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千宸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙妙喵喵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>languyie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午</t>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/34）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云琛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花屋敷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ツカサ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一天白送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源氏会社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双生七杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -313,9 +369,6 @@
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,16 +673,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8</f>
+        <f>'20170716'!K6+'20170717'!K9</f>
         <v>63.55</v>
       </c>
     </row>
@@ -658,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -682,10 +735,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -696,16 +749,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="1">
         <v>6</v>
@@ -714,7 +767,7 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
@@ -745,7 +798,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
@@ -760,16 +813,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>6.5</v>
@@ -778,7 +831,7 @@
         <v>0.40416666666666662</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
@@ -791,16 +844,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="1">
         <v>45.55</v>
@@ -809,10 +862,10 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1">
         <v>45.55</v>
@@ -837,9 +890,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -860,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -869,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -878,10 +933,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -960,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1">
         <v>3.5</v>
@@ -972,122 +1027,153 @@
         <v>0.68541666666666667</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K4" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.66180555555555554</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K8" s="3">
-        <f>SUM(K2:K7)</f>
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K9" s="3">
+        <f>SUM(K2:K8)</f>
         <v>10.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1097,9 +1183,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1121,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1139,10 +1225,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -1150,34 +1236,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1186,25 +1272,25 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1215,112 +1301,112 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>6.5</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>50</v>
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1329,32 +1415,111 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K9" s="1">
-        <f>SUM(K3:K6)</f>
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K12" s="1">
+        <f>SUM(K2:K11)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170716" sheetId="1" r:id="rId2"/>
+    <sheet name="20170718" sheetId="5" r:id="rId2"/>
     <sheet name="20170717" sheetId="4" r:id="rId3"/>
-    <sheet name="20170718" sheetId="5" r:id="rId4"/>
+    <sheet name="20170716" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,55 +251,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（1/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（1/21）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（2/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枫君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青行灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/34）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云琛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
+    <t>云深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/34）32送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,17 +678,658 @@
         <v>39</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K9</f>
+        <f>'20170716'!K6+'20170717'!K8</f>
         <v>63.55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K12" s="1">
+        <f>SUM(K2:K11)</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K8" s="3">
+        <f>SUM(K2:K7)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -886,643 +1523,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.3430555555555555</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.68541666666666667</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.66180555555555554</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K9" s="3">
-        <f>SUM(K2:K8)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K12" s="1">
-        <f>SUM(K2:K11)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A5:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170718" sheetId="5" r:id="rId2"/>
-    <sheet name="20170717" sheetId="4" r:id="rId3"/>
-    <sheet name="20170716" sheetId="1" r:id="rId4"/>
+    <sheet name="20170719" sheetId="5" r:id="rId2"/>
+    <sheet name="20170718" sheetId="6" r:id="rId3"/>
+    <sheet name="20170717" sheetId="4" r:id="rId4"/>
+    <sheet name="20170716" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="74">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一目连</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花屋敷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>荒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王都</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>枫君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青行灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（1/21）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +277,42 @@
   </si>
   <si>
     <t>（1/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,11 +688,11 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8</f>
-        <v>63.55</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12</f>
+        <v>73.05</v>
       </c>
     </row>
   </sheetData>
@@ -693,9 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -717,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -735,10 +746,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -749,16 +760,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -766,18 +777,18 @@
       <c r="H2" s="2">
         <v>0.26458333333333334</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -786,25 +797,29 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -813,20 +828,22 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -838,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -856,14 +873,12 @@
         <v>0.26597222222222222</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -877,16 +892,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>6.5</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>66</v>
+      <c r="H6" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -902,24 +923,28 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>4.5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="2">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -931,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -943,14 +968,12 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
@@ -972,31 +995,35 @@
       <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -1005,33 +1032,31 @@
         <v>0.38958333333333334</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1040,19 +1065,17 @@
         <v>0.39305555555555555</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K12" s="3">
+        <f>SUM(K2:K11)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K12" s="1">
-        <f>SUM(K2:K11)</f>
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1068,6 +1091,381 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K11" s="3">
+        <f>SUM(K2:K10)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -1092,7 +1490,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1101,7 +1499,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -1110,10 +1508,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -1144,7 +1542,9 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K2" s="1">
         <v>6.5</v>
       </c>
@@ -1175,7 +1575,9 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="K3" s="1">
         <v>8</v>
       </c>
@@ -1192,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1">
         <v>3.5</v>
@@ -1204,10 +1606,10 @@
         <v>0.68541666666666667</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1">
         <v>-3.5</v>
@@ -1221,16 +1623,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1239,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1254,16 +1656,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>4.5</v>
@@ -1272,31 +1674,33 @@
         <v>0.66180555555555554</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="K6" s="1">
         <v>-4.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1305,9 +1709,11 @@
         <v>0.55486111111111114</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="1">
         <v>4</v>
       </c>
@@ -1329,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -1348,13 +1754,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1372,10 +1778,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -1386,16 +1792,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="1">
         <v>6</v>
@@ -1404,9 +1810,11 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="K2" s="1">
         <v>6</v>
       </c>
@@ -1435,9 +1843,11 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="K3" s="1">
         <v>-5</v>
       </c>
@@ -1450,16 +1860,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="1">
         <v>6.5</v>
@@ -1468,9 +1878,11 @@
         <v>0.40416666666666662</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="K4" s="1">
         <v>6.5</v>
       </c>
@@ -1481,16 +1893,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>45.55</v>
@@ -1499,10 +1911,10 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1">
         <v>45.55</v>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170719" sheetId="5" r:id="rId2"/>
-    <sheet name="20170718" sheetId="6" r:id="rId3"/>
-    <sheet name="20170717" sheetId="4" r:id="rId4"/>
-    <sheet name="20170716" sheetId="1" r:id="rId5"/>
+    <sheet name="20170720" sheetId="5" r:id="rId2"/>
+    <sheet name="20170719" sheetId="7" r:id="rId3"/>
+    <sheet name="20170718" sheetId="6" r:id="rId4"/>
+    <sheet name="20170717" sheetId="4" r:id="rId5"/>
+    <sheet name="20170716" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（3/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,11 +277,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（1/1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（2/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（1/10）</t>
+    <t>（3/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/11）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,27 +353,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（1/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/10）</t>
+    <t>（3/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/11）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +448,9 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -691,8 +766,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12</f>
-        <v>73.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13</f>
+        <v>83.05</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,38 +835,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.26458333333333334</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>61</v>
+      <c r="J2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -797,22 +873,20 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.45694444444444443</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -822,28 +896,26 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -869,14 +941,10 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.26597222222222222</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -900,14 +968,12 @@
       <c r="G6" s="1">
         <v>6.5</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.43055555555555558</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -931,14 +997,12 @@
       <c r="G7" s="1">
         <v>4.5</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.64166666666666672</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -956,22 +1020,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.2673611111111111</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -981,107 +1043,126 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.38958333333333334</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.39305555555555555</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K12" s="3">
-        <f>SUM(K2:K11)</f>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1092,6 +1173,414 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K12" s="3">
+        <f>SUM(K2:K11)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1154,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -1169,7 +1658,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
@@ -1187,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G3" s="1">
         <v>3.5</v>
@@ -1202,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1">
         <v>-3.5</v>
@@ -1233,11 +1722,9 @@
       <c r="H4" s="2">
         <v>0.26597222222222222</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1270,7 +1757,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1">
         <v>6.5</v>
@@ -1303,7 +1790,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1">
         <v>-4.5</v>
@@ -1323,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1334,11 +1821,9 @@
       <c r="H7" s="2">
         <v>0.2673611111111111</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1368,10 +1853,10 @@
         <v>0.54305555555555551</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
@@ -1385,16 +1870,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1406,7 +1891,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -1414,7 +1899,7 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1426,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1437,11 +1922,9 @@
       <c r="H10" s="2">
         <v>0.39305555555555555</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1465,8 +1948,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1543,7 +2029,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1">
         <v>6.5</v>
@@ -1576,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1">
         <v>8</v>
@@ -1594,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G4" s="1">
         <v>3.5</v>
@@ -1609,7 +2095,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="1">
         <v>-3.5</v>
@@ -1640,9 +2126,7 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1677,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1">
         <v>-4.5</v>
@@ -1712,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
@@ -1735,8 +2219,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1813,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K2" s="1">
         <v>6</v>
@@ -1846,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1">
         <v>-5</v>
@@ -1881,7 +2368,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K4" s="1">
         <v>6.5</v>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170720" sheetId="5" r:id="rId2"/>
-    <sheet name="20170719" sheetId="7" r:id="rId3"/>
-    <sheet name="20170718" sheetId="6" r:id="rId4"/>
-    <sheet name="20170717" sheetId="4" r:id="rId5"/>
-    <sheet name="20170716" sheetId="1" r:id="rId6"/>
+    <sheet name="20170721" sheetId="8" r:id="rId2"/>
+    <sheet name="20170720" sheetId="5" r:id="rId3"/>
+    <sheet name="20170719" sheetId="7" r:id="rId4"/>
+    <sheet name="20170718" sheetId="6" r:id="rId5"/>
+    <sheet name="20170717" sheetId="4" r:id="rId6"/>
+    <sheet name="20170716" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="107">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +387,66 @@
   </si>
   <si>
     <t>（3/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茨木童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極樂淨土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）已预付第二天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吞童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有唱不完的歌、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚣迪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,12 +503,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -757,7 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -766,8 +832,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13</f>
-        <v>83.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K16</f>
+        <v>121.05</v>
       </c>
     </row>
   </sheetData>
@@ -782,9 +848,498 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -831,40 +1386,44 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.45624999999999999</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -873,54 +1432,62 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="1">
         <v>6.5</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
+      <c r="H4" s="2">
+        <v>0.85625000000000007</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -941,15 +1508,19 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0.26041666666666669</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,17 +1539,21 @@
       <c r="G6" s="1">
         <v>6.5</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.56874999999999998</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -997,17 +1572,21 @@
       <c r="G7" s="1">
         <v>4.5</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.68263888888888891</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1028,80 +1607,96 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.44930555555555557</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.35069444444444442</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
+      <c r="A11" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1110,29 +1705,29 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1141,29 +1736,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.97430555555555554</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K13" s="3">
         <f>SUM(K2:K12)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1171,7 +1771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1225,7 +1825,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1260,7 +1860,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +1893,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1926,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1361,7 +1961,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1394,7 +1994,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +2060,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1495,7 +2095,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1576,7 +2176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1630,7 +2230,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1665,7 +2265,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1698,7 +2298,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1731,7 +2331,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +2364,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +2397,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1830,7 +2430,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2001,7 +2601,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2036,7 +2636,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2669,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2102,7 +2702,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2135,7 +2735,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2219,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2272,7 +2872,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2307,7 +2907,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2940,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2375,7 +2975,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="108">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>嚣迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/8）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +837,7 @@
       </c>
       <c r="B1" s="1">
         <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K16</f>
-        <v>121.05</v>
+        <v>125.05</v>
       </c>
     </row>
   </sheetData>
@@ -1086,64 +1090,70 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>0.34583333333333338</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.34583333333333338</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1152,19 +1162,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -1313,7 +1323,7 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
         <f>SUM(K2:K14)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1348,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="111">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>（5/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）18送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -519,6 +531,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -837,7 +850,7 @@
       </c>
       <c r="B1" s="1">
         <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K16</f>
-        <v>125.05</v>
+        <v>123.55</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +914,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -936,7 +949,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,15 +968,21 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.58263888888888882</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -986,11 +1005,11 @@
       <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1023,7 +1042,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1075,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,15 +1094,21 @@
       <c r="G7" s="1">
         <v>4.5</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1118,7 +1143,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1176,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1170,15 +1195,21 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.6694444444444444</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1213,7 +1244,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1236,11 +1267,11 @@
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1273,7 +1304,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1354,7 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
         <f>SUM(K2:K14)</f>
-        <v>28</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1379,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1396,7 +1427,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1431,7 +1462,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1495,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1497,7 +1528,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1530,7 +1561,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1594,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1596,7 +1627,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1631,7 +1662,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1730,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1732,7 +1763,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +1866,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1870,7 +1901,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1903,7 +1934,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +1967,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1971,7 +2002,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2004,7 +2035,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2101,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2105,7 +2136,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2240,7 +2271,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2275,7 +2306,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2308,7 +2339,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2341,7 +2372,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2374,7 +2405,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2438,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2440,7 +2471,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2642,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2646,7 +2677,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +2710,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2712,7 +2743,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2745,7 +2776,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2882,7 +2913,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2917,7 +2948,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2981,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2985,7 +3016,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="20170717" sheetId="4" r:id="rId6"/>
     <sheet name="20170716" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="113">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,95 +374,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（3/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茨木童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極樂淨土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）已预付第二天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吞童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有唱不完的歌、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚣迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（4/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（3/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（6/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>茨木童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>極樂淨土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/4）已预付第二天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒吞童子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有唱不完的歌、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（5/20）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嚣迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/20）18送2</t>
+    <t>（4/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -531,7 +539,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -838,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -850,7 +857,7 @@
       </c>
       <c r="B1" s="1">
         <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K16</f>
-        <v>123.55</v>
+        <v>122.05</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +874,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -914,7 +921,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -942,14 +949,14 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -975,14 +982,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1005,11 +1012,15 @@
       <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1035,14 +1046,14 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1068,14 +1079,14 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1101,14 +1112,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K7" s="1">
         <v>-4.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1136,28 +1147,28 @@
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -1169,14 +1180,14 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1202,21 +1213,21 @@
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K10" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1225,7 +1236,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1234,17 +1245,17 @@
         <v>0.36180555555555555</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1263,15 +1274,21 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1297,14 +1314,14 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1345,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1343,7 +1360,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
@@ -1354,7 +1371,7 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
         <f>SUM(K2:K14)</f>
-        <v>26.5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1396,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1427,7 +1444,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1455,14 +1472,14 @@
         <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1488,14 +1505,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1528,7 +1545,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1561,7 +1578,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1611,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1644,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1662,7 +1679,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1723,14 +1740,14 @@
         <v>30</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1756,14 +1773,14 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1883,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1901,7 +1918,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1951,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +1984,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2002,7 +2019,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2035,7 +2052,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2118,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2136,7 +2153,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2271,7 +2288,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2306,7 +2323,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2339,7 +2356,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2372,7 +2389,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2422,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2455,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2471,7 +2488,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2659,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2677,7 +2694,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2727,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2743,7 +2760,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2776,7 +2793,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2913,7 +2930,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2948,7 +2965,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2981,7 +2998,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3016,7 +3033,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170721" sheetId="8" r:id="rId2"/>
-    <sheet name="20170720" sheetId="5" r:id="rId3"/>
-    <sheet name="20170719" sheetId="7" r:id="rId4"/>
-    <sheet name="20170718" sheetId="6" r:id="rId5"/>
-    <sheet name="20170717" sheetId="4" r:id="rId6"/>
-    <sheet name="20170716" sheetId="1" r:id="rId7"/>
+    <sheet name="20170722" sheetId="10" r:id="rId2"/>
+    <sheet name="20170721" sheetId="8" r:id="rId3"/>
+    <sheet name="20170720" sheetId="5" r:id="rId4"/>
+    <sheet name="20170719" sheetId="7" r:id="rId5"/>
+    <sheet name="20170718" sheetId="6" r:id="rId6"/>
+    <sheet name="20170717" sheetId="4" r:id="rId7"/>
+    <sheet name="20170716" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="128">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（1/4）已预付第二天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>酒吞童子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,51 +424,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>嚣迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）已预付第2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）已预付第3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>荒川之主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（4/11）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（2/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嚣迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/15）</t>
+    <t>（5/11）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,12 +588,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -845,9 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -856,8 +918,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K16</f>
-        <v>122.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16</f>
+        <v>158.55000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +936,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -921,11 +983,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -934,29 +996,29 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>0.30138888888888887</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K2" s="1">
-        <v>6.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -976,22 +1038,22 @@
         <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.58263888888888882</v>
+        <v>0.39444444444444443</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -1000,27 +1062,23 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-3.5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1042,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>1.5277777777777777E-2</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
@@ -1053,7 +1111,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1072,21 +1130,15 @@
       <c r="G6" s="1">
         <v>6.5</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.41111111111111115</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.5</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1105,25 +1157,19 @@
       <c r="G7" s="1">
         <v>4.5</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.63541666666666663</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-4.5</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1132,102 +1178,94 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G9" s="1">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.34583333333333338</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="1">
-        <v>8</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K10" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1236,66 +1274,64 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>0.36180555555555555</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1304,29 +1340,27 @@
         <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1335,52 +1369,66 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>3.472222222222222E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>25</v>
+        <f>SUM(K2:K15)</f>
+        <v>36.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,6 +1437,511 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1444,7 +1997,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1479,7 +2032,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1505,14 +2058,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K3" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +2098,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1578,7 +2131,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +2164,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +2197,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1679,7 +2232,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +2300,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1780,7 +2333,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1883,7 +2436,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1918,7 +2471,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +2504,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1984,7 +2537,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2019,7 +2572,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2052,7 +2605,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2671,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2153,7 +2706,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2234,7 +2787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2288,7 +2841,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2323,7 +2876,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +2909,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2389,7 +2942,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +2975,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +3008,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2488,7 +3041,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2659,7 +3212,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2694,7 +3247,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2727,7 +3280,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2760,7 +3313,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2793,7 +3346,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2877,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2930,7 +3483,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2965,7 +3518,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2998,7 +3551,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3033,7 +3586,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="20170716" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="133">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（4/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>茨木童子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,110 +423,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（4/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）已预付第2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）已预付第3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>荒川之主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（5/8）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（6/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（5/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（4/34）32送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（4/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青行灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/4）已预付第2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/4）已预付第3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖</t>
-  </si>
-  <si>
-    <t>荒川之主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/10）全款付清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/11）</t>
+    <t>（5/34）32送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,12 +607,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -909,7 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -919,7 +943,7 @@
       </c>
       <c r="B1" s="1">
         <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16</f>
-        <v>158.55000000000001</v>
+        <v>173.05</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +960,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -949,7 +973,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -983,7 +1007,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1011,14 +1035,14 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K2" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1044,14 +1068,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1070,75 +1094,87 @@
       <c r="G4" s="1">
         <v>6.5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0.56805555555555554</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1157,52 +1193,58 @@
       <c r="G7" s="1">
         <v>4.5</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.72638888888888886</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1211,61 +1253,69 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1" t="s">
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="J10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1274,93 +1324,95 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.38958333333333334</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1369,29 +1421,33 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1400,35 +1456,34 @@
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
-        <v>30</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>125</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="K15" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
         <f>SUM(K2:K15)</f>
-        <v>36.5</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1443,9 +1498,7 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1492,7 +1545,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1520,14 +1573,14 @@
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1553,14 +1606,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1584,14 +1637,14 @@
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K4" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1617,14 +1670,14 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1650,14 +1703,14 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1683,14 +1736,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K7" s="1">
         <v>-4.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1718,28 +1771,28 @@
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -1751,14 +1804,14 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1784,21 +1837,21 @@
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K10" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1807,7 +1860,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1816,22 +1869,22 @@
         <v>0.36180555555555555</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1840,7 +1893,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1850,14 +1903,14 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -1891,7 +1944,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -1916,7 +1969,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1948,9 +2001,7 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1997,7 +2048,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2032,7 +2083,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2058,14 +2109,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K3" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2149,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2131,7 +2182,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2164,7 +2215,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +2248,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2232,7 +2283,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2351,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2333,7 +2384,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2436,7 +2487,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2471,7 +2522,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2504,7 +2555,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2537,7 +2588,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2572,7 +2623,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2656,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2671,7 +2722,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2706,7 +2757,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2841,7 +2892,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2876,7 +2927,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2909,7 +2960,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2942,7 +2993,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2975,7 +3026,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3008,7 +3059,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3041,7 +3092,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3212,7 +3263,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3247,7 +3298,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3280,7 +3331,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3313,7 +3364,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3346,7 +3397,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3534,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3518,7 +3569,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3551,7 +3602,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3586,7 +3637,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170722" sheetId="10" r:id="rId2"/>
-    <sheet name="20170721" sheetId="8" r:id="rId3"/>
-    <sheet name="20170720" sheetId="5" r:id="rId4"/>
-    <sheet name="20170719" sheetId="7" r:id="rId5"/>
-    <sheet name="20170718" sheetId="6" r:id="rId6"/>
-    <sheet name="20170717" sheetId="4" r:id="rId7"/>
-    <sheet name="20170716" sheetId="1" r:id="rId8"/>
+    <sheet name="20170723" sheetId="11" r:id="rId2"/>
+    <sheet name="20170722" sheetId="10" r:id="rId3"/>
+    <sheet name="20170721" sheetId="8" r:id="rId4"/>
+    <sheet name="20170720" sheetId="5" r:id="rId5"/>
+    <sheet name="20170719" sheetId="7" r:id="rId6"/>
+    <sheet name="20170718" sheetId="6" r:id="rId7"/>
+    <sheet name="20170717" sheetId="4" r:id="rId8"/>
+    <sheet name="20170716" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="142">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,54 +460,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（4/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）已预付第2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）已预付第3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>荒川之主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（5/21）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（4/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/4）已预付第2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/4）已预付第3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖</t>
-  </si>
-  <si>
-    <t>荒川之主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/10）全款付清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/11）</t>
+    <t>（6/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,15 +579,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/8）</t>
+    <t>（6/11）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,27 +587,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/34）32送2</t>
+    <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,12 +644,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -931,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -942,8 +982,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16</f>
-        <v>173.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K16</f>
+        <v>188.55</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1000,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -973,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1007,80 +1049,74 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
+      <c r="A2" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9.7222222222222224E-3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.39444444444444443</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1089,92 +1125,80 @@
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
         <v>6.5</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.56805555555555554</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="H6" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="1">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1193,58 +1217,44 @@
       <c r="G7" s="1">
         <v>4.5</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.72638888888888886</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-4.5</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.8965277777777777</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1253,31 +1263,31 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>7.6388888888888886E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1286,36 +1296,30 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.46249999999999997</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1324,90 +1328,78 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>3.472222222222222E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>104</v>
+      <c r="J11" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.38958333333333334</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4</v>
-      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,22 +1418,16 @@
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="2">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>115</v>
+      <c r="A15" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -1462,11 +1448,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1475,7 +1461,7 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
         <f>SUM(K2:K15)</f>
-        <v>51</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -1492,6 +1478,546 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f>SUM(K2:K15)</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1545,7 +2071,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1580,7 +2106,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +2139,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +2170,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1677,7 +2203,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1703,14 +2229,14 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1736,14 +2262,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K7" s="1">
         <v>-4.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1771,14 +2297,14 @@
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1804,14 +2330,14 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1837,14 +2363,14 @@
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1879,7 +2405,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +2436,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +2462,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -1944,7 +2470,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -1969,7 +2495,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1994,7 +2520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2048,7 +2574,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2083,7 +2609,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2116,7 +2642,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2675,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2182,7 +2708,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2215,7 +2741,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2774,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2283,7 +2809,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2877,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2384,7 +2910,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2487,7 +3013,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2522,7 +3048,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2555,7 +3081,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +3114,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2623,7 +3149,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +3182,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2722,7 +3248,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2757,7 +3283,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2838,7 +3364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2892,7 +3418,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2927,7 +3453,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2960,7 +3486,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2993,7 +3519,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3026,7 +3552,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3059,7 +3585,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3092,7 +3618,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +3736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3263,7 +3789,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3298,7 +3824,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3331,7 +3857,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3364,7 +3890,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3397,7 +3923,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3481,7 +4007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3534,7 +4060,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3569,7 +4095,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3602,7 +4128,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3637,7 +4163,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="156">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,43 +444,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（4/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）已预付第2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>荒川之主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱神探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（7/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（4/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/15）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/4）已预付第2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（2/4）已预付第3天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
+    <t>（3/4）交易提前结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉夜姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子的帅爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,106 +635,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卖</t>
-  </si>
-  <si>
-    <t>荒川之主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/10）全款付清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱神探</t>
+    <t>（3/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -982,8 +1038,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K16</f>
-        <v>188.55</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17</f>
+        <v>195.05</v>
       </c>
     </row>
   </sheetData>
@@ -998,11 +1054,9 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1015,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1050,7 +1104,7 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1077,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
@@ -1103,20 +1157,26 @@
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.29791666666666666</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1130,44 +1190,54 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0.2986111111111111</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1176,31 +1246,33 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H6" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>0.69652777777777775</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>132</v>
+      <c r="J6" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="K6" s="1">
-        <v>6.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1209,85 +1281,97 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1296,80 +1380,92 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
+      <c r="H11" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="J11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
@@ -1377,26 +1473,30 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
@@ -1404,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1413,27 +1513,31 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.72638888888888886</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1442,34 +1546,69 @@
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K16" s="3">
-        <f>SUM(K2:K15)</f>
-        <v>15.5</v>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1484,9 +1623,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1499,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1561,7 +1698,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K2" s="1">
         <v>-3.5</v>
@@ -1594,7 +1731,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -1627,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K4" s="1">
         <v>6.5</v>
@@ -1636,10 +1773,10 @@
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1657,10 +1794,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K5" s="1">
         <v>30</v>
@@ -1693,7 +1830,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1726,7 +1863,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K7" s="1">
         <v>-4.5</v>
@@ -1759,7 +1896,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K8" s="1">
         <v>6.5</v>
@@ -1794,7 +1931,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K9" s="1">
         <v>-2</v>
@@ -1827,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K10" s="1">
         <v>4</v>
@@ -1860,7 +1997,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1893,7 +2030,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
@@ -1926,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
@@ -1959,7 +2096,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -1967,7 +2104,7 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -1992,7 +2129,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -2132,7 +2269,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -2163,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" s="1">
         <v>-3.5</v>
@@ -2229,7 +2366,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
@@ -2262,7 +2399,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K7" s="1">
         <v>-4.5</v>
@@ -2297,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
@@ -2330,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="1">
         <v>8</v>
@@ -2363,7 +2500,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="1">
         <v>-2</v>
@@ -2462,7 +2599,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -2470,7 +2607,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -2495,7 +2632,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170723" sheetId="11" r:id="rId2"/>
-    <sheet name="20170722" sheetId="10" r:id="rId3"/>
-    <sheet name="20170721" sheetId="8" r:id="rId4"/>
-    <sheet name="20170720" sheetId="5" r:id="rId5"/>
-    <sheet name="20170719" sheetId="7" r:id="rId6"/>
-    <sheet name="20170718" sheetId="6" r:id="rId7"/>
-    <sheet name="20170717" sheetId="4" r:id="rId8"/>
-    <sheet name="20170716" sheetId="1" r:id="rId9"/>
+    <sheet name="20170724" sheetId="12" r:id="rId2"/>
+    <sheet name="20170723" sheetId="11" r:id="rId3"/>
+    <sheet name="20170722" sheetId="10" r:id="rId4"/>
+    <sheet name="20170721" sheetId="8" r:id="rId5"/>
+    <sheet name="20170720" sheetId="5" r:id="rId6"/>
+    <sheet name="20170719" sheetId="7" r:id="rId7"/>
+    <sheet name="20170718" sheetId="6" r:id="rId8"/>
+    <sheet name="20170717" sheetId="4" r:id="rId9"/>
+    <sheet name="20170716" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="157">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,6 +645,10 @@
   </si>
   <si>
     <t>（8/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,12 +705,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1027,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1043,6 +1051,211 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45.55</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K6" s="3">
+        <f>SUM(K2:K5)</f>
+        <v>53.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1053,6 +1266,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f>SUM(K2:K15)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -1103,7 +1796,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1138,7 +1831,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1864,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
@@ -1202,7 +1895,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1235,7 +1928,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1961,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1303,7 +1996,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +2029,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +2060,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1402,7 +2095,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +2128,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1468,7 +2161,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +2192,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +2225,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +2309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1670,7 +2363,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1705,7 +2398,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +2431,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +2464,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1804,7 +2497,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1837,7 +2530,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +2563,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1903,7 +2596,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1938,7 +2631,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +2664,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2004,7 +2697,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2730,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2763,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2208,7 +2901,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2243,7 +2936,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +2969,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2307,7 +3000,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2340,7 +3033,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +3066,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +3099,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2441,7 +3134,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2474,7 +3167,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +3200,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2542,7 +3235,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +3266,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +3350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2711,7 +3404,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2746,7 +3439,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2779,7 +3472,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +3505,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2845,7 +3538,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +3571,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2911,7 +3604,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2946,7 +3639,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3014,7 +3707,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3047,7 +3740,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3096,7 +3789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3150,7 +3843,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3185,7 +3878,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3218,7 +3911,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3251,7 +3944,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3286,7 +3979,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3319,7 +4012,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3385,7 +4078,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3420,7 +4113,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3501,7 +4194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3555,7 +4248,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3590,7 +4283,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3623,7 +4316,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3656,7 +4349,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3689,7 +4382,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3722,7 +4415,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3755,7 +4448,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3873,7 +4566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3926,7 +4619,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3961,7 +4654,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +4687,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4027,7 +4720,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4060,7 +4753,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4142,209 +4835,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.94027777777777777</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>45.55</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.95694444444444438</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1">
-        <v>45.55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K6" s="3">
-        <f>SUM(K2:K5)</f>
-        <v>53.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
@@ -18,12 +18,12 @@
     <sheet name="20170717" sheetId="4" r:id="rId9"/>
     <sheet name="20170716" sheetId="1" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="162">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,6 +649,26 @@
   </si>
   <si>
     <t>地狱神探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/4）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,9 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1046,8 +1064,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17</f>
-        <v>195.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K16</f>
+        <v>198.55</v>
       </c>
     </row>
   </sheetData>
@@ -1337,14 +1355,18 @@
       <c r="G2" s="1">
         <v>3.5</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>0.32013888888888892</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
@@ -1453,17 +1475,21 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.31875000000000003</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1472,27 +1498,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1501,20 +1527,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1523,7 +1549,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1532,27 +1558,31 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.38819444444444445</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1561,22 +1591,26 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.60902777777777783</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -1600,14 +1634,18 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
@@ -1624,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1632,7 +1670,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -1726,7 +1764,7 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
         <f>SUM(K2:K15)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="163">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +669,10 @@
   </si>
   <si>
     <t>（0/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/20）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,7 +1069,7 @@
       </c>
       <c r="B1" s="1">
         <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K16</f>
-        <v>198.55</v>
+        <v>205.05</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1493,7 @@
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1498,27 +1502,31 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1527,20 +1535,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1764,7 +1772,7 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K16" s="3">
         <f>SUM(K2:K15)</f>
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="172">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,11 +668,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（8/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菟菟纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/20）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1104,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K16</f>
-        <v>205.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18</f>
+        <v>226.05</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1325,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,36 +1414,40 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.52152777777777781</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1416,19 +1456,21 @@
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
@@ -1436,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1445,17 +1487,23 @@
         <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -1517,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="1">
         <v>6.5</v>
@@ -1543,14 +1591,18 @@
       <c r="G8" s="1">
         <v>4.5</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.12708333333333333</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -1590,105 +1642,109 @@
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <v>0.60902777777777783</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="H11" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>0.38194444444444442</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1697,19 +1753,21 @@
         <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
@@ -1717,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1726,29 +1784,27 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1757,30 +1813,99 @@
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K16" s="3">
-        <f>SUM(K2:K15)</f>
-        <v>10</v>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K18" s="3">
+        <f>SUM(K2:K17)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -8,22 +8,23 @@
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170724" sheetId="12" r:id="rId2"/>
-    <sheet name="20170723" sheetId="11" r:id="rId3"/>
-    <sheet name="20170722" sheetId="10" r:id="rId4"/>
-    <sheet name="20170721" sheetId="8" r:id="rId5"/>
-    <sheet name="20170720" sheetId="5" r:id="rId6"/>
-    <sheet name="20170719" sheetId="7" r:id="rId7"/>
-    <sheet name="20170718" sheetId="6" r:id="rId8"/>
-    <sheet name="20170717" sheetId="4" r:id="rId9"/>
-    <sheet name="20170716" sheetId="1" r:id="rId10"/>
+    <sheet name="20170725" sheetId="13" r:id="rId2"/>
+    <sheet name="20170724" sheetId="12" r:id="rId3"/>
+    <sheet name="20170723" sheetId="11" r:id="rId4"/>
+    <sheet name="20170722" sheetId="10" r:id="rId5"/>
+    <sheet name="20170721" sheetId="8" r:id="rId6"/>
+    <sheet name="20170720" sheetId="5" r:id="rId7"/>
+    <sheet name="20170719" sheetId="7" r:id="rId8"/>
+    <sheet name="20170718" sheetId="6" r:id="rId9"/>
+    <sheet name="20170717" sheetId="4" r:id="rId10"/>
+    <sheet name="20170716" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="181">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,7 +446,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（4/15）</t>
+    <t>（4/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）已预付第2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左嘉欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>荒川之主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱神探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/4）已预付第3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/4）交易提前结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉夜姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子的帅爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱神探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菟菟纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,262 +737,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（4/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/4）已预付第2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左嘉欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖</t>
-  </si>
-  <si>
-    <t>荒川之主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱神探</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/10）全款付清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/10）全款付清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4/4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/4）已预付第3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/4）交易提前结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉夜姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包子的帅爸爸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（6/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（2/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（8/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱神探</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（7/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（9/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（8/8）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（8/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/10）全款付清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枫君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/21）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7/11）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（8/10）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菟菟纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/20）</t>
+    <t>（9/15）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,12 +802,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1095,7 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1104,8 +1146,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18</f>
-        <v>226.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15</f>
+        <v>232.05</v>
       </c>
     </row>
   </sheetData>
@@ -1116,6 +1158,277 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K8" s="3">
+        <f>SUM(K2:K7)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1168,7 +1481,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1203,7 +1516,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1549,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1271,7 +1584,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1638,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,8 +1687,502 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>156</v>
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1402,14 +2209,14 @@
         <v>30</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K2" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1435,19 +2242,19 @@
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1466,19 +2273,19 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1487,7 +2294,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -1499,14 +2306,14 @@
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1532,14 +2339,14 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1565,14 +2372,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K7" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1598,14 +2405,14 @@
         <v>30</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K8" s="1">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1633,14 +2440,14 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +2461,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1671,7 +2478,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1697,30 +2504,30 @@
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K11" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -1739,7 +2546,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +2577,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1789,17 +2596,21 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.88402777777777775</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1818,17 +2629,21 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1854,14 +2669,14 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +2702,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K17" s="1">
         <v>5</v>
@@ -1896,7 +2711,7 @@
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K18" s="3">
         <f>SUM(K2:K17)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1933,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1967,8 +2782,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>130</v>
+      <c r="A2" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1995,14 +2810,14 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2028,19 +2843,19 @@
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2059,28 +2874,28 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -2089,17 +2904,17 @@
         <v>0.50208333333333333</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2125,14 +2940,14 @@
         <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="K6" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2160,14 +2975,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K7" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2193,14 +3008,14 @@
         <v>30</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K8" s="1">
         <v>-4.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2224,14 +3039,14 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2259,14 +3074,14 @@
         <v>13</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K10" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2292,18 +3107,18 @@
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>55</v>
@@ -2325,14 +3140,14 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2356,14 +3171,14 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2389,14 +3204,14 @@
         <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +3237,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
@@ -2455,7 +3270,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -2480,7 +3295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2500,7 +3315,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2534,7 +3349,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2562,14 +3377,14 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="K2" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2595,14 +3410,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2628,19 +3443,19 @@
         <v>13</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K4" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2658,17 +3473,17 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2694,14 +3509,14 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2727,14 +3542,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K7" s="1">
         <v>-4.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2760,14 +3575,14 @@
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K8" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2795,14 +3610,14 @@
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2828,14 +3643,14 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K10" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2861,14 +3676,14 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2894,14 +3709,14 @@
         <v>13</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2927,14 +3742,14 @@
         <v>13</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2960,7 +3775,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -2968,7 +3783,7 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -2993,7 +3808,7 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -3018,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3072,7 +3887,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3107,7 +3922,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3133,14 +3948,14 @@
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3159,19 +3974,21 @@
       <c r="G4" s="1">
         <v>3.5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0.80972222222222223</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="K4" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3204,7 +4021,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3230,14 +4047,14 @@
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3263,14 +4080,14 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K7" s="1">
         <v>-4.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3298,14 +4115,14 @@
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3331,14 +4148,14 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3364,14 +4181,14 @@
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K10" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3406,7 +4223,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3437,7 +4254,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3463,7 +4280,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -3471,7 +4288,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -3496,7 +4313,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -3521,7 +4338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3575,7 +4392,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3610,7 +4427,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3643,7 +4460,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +4493,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3709,7 +4526,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3742,7 +4559,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3775,7 +4592,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3810,7 +4627,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3878,7 +4695,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3911,7 +4728,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3960,7 +4777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4014,7 +4831,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4049,7 +4866,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4899,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +4932,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4150,7 +4967,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4183,7 +5000,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4249,7 +5066,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4284,7 +5101,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4365,7 +5182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4419,7 +5236,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4454,7 +5271,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4487,7 +5304,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4520,7 +5337,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4553,7 +5370,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4586,7 +5403,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4619,7 +5436,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4735,275 +5552,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.3430555555555555</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.68541666666666667</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.66180555555555554</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K8" s="3">
-        <f>SUM(K2:K7)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -8,23 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170725" sheetId="13" r:id="rId2"/>
-    <sheet name="20170724" sheetId="12" r:id="rId3"/>
-    <sheet name="20170723" sheetId="11" r:id="rId4"/>
-    <sheet name="20170722" sheetId="10" r:id="rId5"/>
-    <sheet name="20170721" sheetId="8" r:id="rId6"/>
-    <sheet name="20170720" sheetId="5" r:id="rId7"/>
-    <sheet name="20170719" sheetId="7" r:id="rId8"/>
-    <sheet name="20170718" sheetId="6" r:id="rId9"/>
-    <sheet name="20170717" sheetId="4" r:id="rId10"/>
-    <sheet name="20170716" sheetId="1" r:id="rId11"/>
+    <sheet name="20170726" sheetId="14" r:id="rId2"/>
+    <sheet name="20170725" sheetId="13" r:id="rId3"/>
+    <sheet name="20170724" sheetId="12" r:id="rId4"/>
+    <sheet name="20170723" sheetId="11" r:id="rId5"/>
+    <sheet name="20170722" sheetId="10" r:id="rId6"/>
+    <sheet name="20170721" sheetId="8" r:id="rId7"/>
+    <sheet name="20170720" sheetId="5" r:id="rId8"/>
+    <sheet name="20170719" sheetId="7" r:id="rId9"/>
+    <sheet name="20170718" sheetId="6" r:id="rId10"/>
+    <sheet name="20170717" sheetId="4" r:id="rId11"/>
+    <sheet name="20170716" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="189">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +747,38 @@
   </si>
   <si>
     <t>（9/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/6）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/20）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,12 +835,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1135,9 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1146,8 +1180,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15</f>
-        <v>232.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15</f>
+        <v>243.05</v>
       </c>
     </row>
   </sheetData>
@@ -1158,6 +1192,378 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K11" s="3">
+        <f>SUM(K2:K10)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1210,7 +1616,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1245,7 +1651,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1684,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1717,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1344,7 +1750,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1481,7 +1887,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1516,7 +1922,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1955,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1584,7 +1990,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1687,11 +2093,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1700,6 +2106,478 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1722,7 +2600,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -1753,7 +2631,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +2664,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1821,7 +2699,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +2732,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1873,15 +2751,19 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.77916666666666667</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1914,7 +2796,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1947,7 +2829,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1980,7 +2862,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1999,17 +2881,21 @@
       <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.72430555555555554</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2928,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2077,7 +2963,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2110,7 +2996,7 @@
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K15" s="3">
         <f>SUM(K2:K14)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +3013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2181,7 +3067,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2216,7 +3102,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +3135,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2280,7 +3166,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2313,7 +3199,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2346,7 +3232,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +3265,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2412,7 +3298,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2447,7 +3333,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +3364,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2511,7 +3397,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2546,7 +3432,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2577,7 +3463,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2610,7 +3496,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +3529,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2676,7 +3562,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2782,7 +3668,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2817,7 +3703,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +3736,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2881,7 +3767,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2914,7 +3800,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2947,7 +3833,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2982,7 +3868,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3901,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3932,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3081,7 +3967,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3114,7 +4000,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3147,7 +4033,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3178,7 +4064,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +4097,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3295,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3349,7 +4235,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3384,7 +4270,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3417,7 +4303,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3450,7 +4336,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3483,7 +4369,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3516,7 +4402,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3549,7 +4435,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3582,7 +4468,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3617,7 +4503,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3650,7 +4536,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3683,7 +4569,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3716,7 +4602,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3749,7 +4635,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3833,7 +4719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3887,7 +4773,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3922,7 +4808,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3955,7 +4841,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3988,7 +4874,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4021,7 +4907,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4054,7 +4940,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4973,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4122,7 +5008,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4155,7 +5041,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4188,7 +5074,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4223,7 +5109,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4254,7 +5140,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4338,7 +5224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4392,7 +5278,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4427,7 +5313,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4460,7 +5346,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4493,7 +5379,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4526,7 +5412,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4559,7 +5445,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4592,7 +5478,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4627,7 +5513,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4695,7 +5581,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4728,7 +5614,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4777,7 +5663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4831,7 +5717,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4866,7 +5752,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4899,7 +5785,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4932,7 +5818,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4967,7 +5853,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5000,7 +5886,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5066,7 +5952,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5101,7 +5987,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5180,376 +6066,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.26458333333333334</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.45694444444444443</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.26597222222222222</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.38958333333333334</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.39305555555555555</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K11" s="3">
-        <f>SUM(K2:K10)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -8,24 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170726" sheetId="14" r:id="rId2"/>
-    <sheet name="20170725" sheetId="13" r:id="rId3"/>
-    <sheet name="20170724" sheetId="12" r:id="rId4"/>
-    <sheet name="20170723" sheetId="11" r:id="rId5"/>
-    <sheet name="20170722" sheetId="10" r:id="rId6"/>
-    <sheet name="20170721" sheetId="8" r:id="rId7"/>
-    <sheet name="20170720" sheetId="5" r:id="rId8"/>
-    <sheet name="20170719" sheetId="7" r:id="rId9"/>
-    <sheet name="20170718" sheetId="6" r:id="rId10"/>
-    <sheet name="20170717" sheetId="4" r:id="rId11"/>
-    <sheet name="20170716" sheetId="1" r:id="rId12"/>
+    <sheet name="20170727" sheetId="15" r:id="rId2"/>
+    <sheet name="20170726" sheetId="14" r:id="rId3"/>
+    <sheet name="20170725" sheetId="13" r:id="rId4"/>
+    <sheet name="20170724" sheetId="12" r:id="rId5"/>
+    <sheet name="20170723" sheetId="11" r:id="rId6"/>
+    <sheet name="20170722" sheetId="10" r:id="rId7"/>
+    <sheet name="20170721" sheetId="8" r:id="rId8"/>
+    <sheet name="20170720" sheetId="5" r:id="rId9"/>
+    <sheet name="20170719" sheetId="7" r:id="rId10"/>
+    <sheet name="20170718" sheetId="6" r:id="rId11"/>
+    <sheet name="20170717" sheetId="4" r:id="rId12"/>
+    <sheet name="20170716" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="204">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/6）全款付清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（9/20）18送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,6 +776,70 @@
   </si>
   <si>
     <t>（9/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/6）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/6）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五零五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本大帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/34）32送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,12 +896,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1171,7 +1235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1180,8 +1246,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15</f>
-        <v>243.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K15</f>
+        <v>290.05</v>
       </c>
     </row>
   </sheetData>
@@ -1192,6 +1258,411 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K12" s="3">
+        <f>SUM(K2:K11)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1245,7 +1716,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1280,7 +1751,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1784,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1346,7 +1817,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1850,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1883,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1445,7 +1916,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1616,7 +2087,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1651,7 +2122,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1684,7 +2155,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +2188,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1750,7 +2221,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1887,7 +2358,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1922,7 +2393,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1955,7 +2426,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1990,7 +2461,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2093,42 +2564,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>186</v>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2147,17 +2618,21 @@
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.28611111111111115</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2176,44 +2651,48 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0.34375</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>183</v>
+      <c r="J5" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2235,20 +2714,20 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2259,91 +2738,95 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H9" s="2">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -2355,31 +2838,29 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2388,27 +2869,31 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.43194444444444446</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2417,24 +2902,26 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J12" s="4" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -2443,31 +2930,29 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>187</v>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="K13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -2476,25 +2961,31 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K15" s="3">
         <f>SUM(K2:K14)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2565,11 +3056,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -2578,6 +3069,510 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2600,7 +3595,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -2631,7 +3626,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2664,7 +3659,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2699,7 +3694,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +3727,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2763,7 +3758,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2796,7 +3791,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2829,7 +3824,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2862,7 +3857,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +3890,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2928,7 +3923,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2963,7 +3958,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3013,7 +4008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3067,7 +4062,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3102,7 +4097,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3135,7 +4130,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -3166,7 +4161,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3199,7 +4194,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3232,7 +4227,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3265,7 +4260,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3298,7 +4293,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3333,7 +4328,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3364,7 +4359,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3397,7 +4392,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3432,7 +4427,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -3463,7 +4458,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3496,7 +4491,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3529,7 +4524,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3562,7 +4557,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3614,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3668,7 +4663,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3703,7 +4698,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +4731,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -3767,7 +4762,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3800,7 +4795,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3833,7 +4828,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3868,7 +4863,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3901,7 +4896,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3932,7 +4927,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3967,7 +4962,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4000,7 +4995,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4033,7 +5028,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4064,7 +5059,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4097,7 +5092,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4181,7 +5176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4235,7 +5230,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4270,7 +5265,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4303,7 +5298,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4336,7 +5331,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4369,7 +5364,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4402,7 +5397,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4435,7 +5430,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4468,7 +5463,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4503,7 +5498,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4536,7 +5531,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4569,7 +5564,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4602,7 +5597,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4635,7 +5630,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4719,7 +5714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4773,7 +5768,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4808,7 +5803,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4841,7 +5836,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4874,7 +5869,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4907,7 +5902,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4940,7 +5935,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4973,7 +5968,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5008,7 +6003,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5041,7 +6036,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5074,7 +6069,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5109,7 +6104,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -5140,7 +6135,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +6219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5278,7 +6273,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5313,7 +6308,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5346,7 +6341,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5379,7 +6374,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5412,7 +6407,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5445,7 +6440,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5478,7 +6473,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5513,7 +6508,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5581,7 +6576,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5614,7 +6609,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5661,409 +6656,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.42291666666666666</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.8569444444444444</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.50763888888888886</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.37638888888888888</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K12" s="3">
-        <f>SUM(K2:K11)</f>
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170727" sheetId="15" r:id="rId2"/>
-    <sheet name="20170726" sheetId="14" r:id="rId3"/>
-    <sheet name="20170725" sheetId="13" r:id="rId4"/>
-    <sheet name="20170724" sheetId="12" r:id="rId5"/>
-    <sheet name="20170723" sheetId="11" r:id="rId6"/>
-    <sheet name="20170722" sheetId="10" r:id="rId7"/>
-    <sheet name="20170721" sheetId="8" r:id="rId8"/>
-    <sheet name="20170720" sheetId="5" r:id="rId9"/>
-    <sheet name="20170719" sheetId="7" r:id="rId10"/>
-    <sheet name="20170718" sheetId="6" r:id="rId11"/>
-    <sheet name="20170717" sheetId="4" r:id="rId12"/>
-    <sheet name="20170716" sheetId="1" r:id="rId13"/>
+    <sheet name="20170728" sheetId="16" r:id="rId2"/>
+    <sheet name="20170727" sheetId="15" r:id="rId3"/>
+    <sheet name="20170726" sheetId="14" r:id="rId4"/>
+    <sheet name="20170725" sheetId="13" r:id="rId5"/>
+    <sheet name="20170724" sheetId="12" r:id="rId6"/>
+    <sheet name="20170723" sheetId="11" r:id="rId7"/>
+    <sheet name="20170722" sheetId="10" r:id="rId8"/>
+    <sheet name="20170721" sheetId="8" r:id="rId9"/>
+    <sheet name="20170720" sheetId="5" r:id="rId10"/>
+    <sheet name="20170719" sheetId="7" r:id="rId11"/>
+    <sheet name="20170718" sheetId="6" r:id="rId12"/>
+    <sheet name="20170717" sheetId="4" r:id="rId13"/>
+    <sheet name="20170716" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="215">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,10 +824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/18）18片35元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（10/20）18送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,11 +832,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（10/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（11/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（10/21）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（10/34）32送2</t>
+    <t>（12/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（11/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（11/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（11/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青鹿与森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邬控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,12 +941,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1235,9 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1246,8 +1295,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K15</f>
-        <v>290.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K14</f>
+        <v>283.55</v>
       </c>
     </row>
   </sheetData>
@@ -1258,6 +1307,445 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.85625000000000007</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1311,7 +1799,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1346,7 +1834,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1867,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1900,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1447,7 +1935,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1968,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +2034,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1581,7 +2069,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1716,7 +2204,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1751,7 +2239,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +2272,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1817,7 +2305,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +2338,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +2371,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1916,7 +2404,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2087,7 +2575,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2122,7 +2610,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2643,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2188,7 +2676,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2221,7 +2709,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2305,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2358,7 +2846,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2393,7 +2881,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2426,7 +2914,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2461,7 +2949,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +3003,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2564,42 +3052,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3888888888888888E-2</v>
+        <v>0.42083333333333334</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>194</v>
+      <c r="J2" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2610,62 +3098,60 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2674,60 +3160,54 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>185</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.5</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2751,82 +3231,84 @@
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3743055555555555</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>200</v>
+      <c r="J9" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -2835,32 +3317,28 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2869,57 +3347,57 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.43194444444444446</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2938,63 +3416,24 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
-        <v>2.0833333333333333E-3</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.3756944444444445</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>18</v>
+      <c r="K14" s="3">
+        <f>SUM(K2:K13)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3007,7 +3446,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3056,42 +3495,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>185</v>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3111,20 +3550,20 @@
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -3144,51 +3583,51 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.34375</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.8652777777777777</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
+      <c r="J5" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3210,20 +3649,20 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3234,99 +3673,99 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H9" s="2">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -3338,28 +3777,26 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -3371,29 +3808,33 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -3402,103 +3843,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>37</v>
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3560,11 +3932,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -3573,6 +3945,510 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3595,7 +4471,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -3626,7 +4502,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3659,7 +4535,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3694,7 +4570,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3727,7 +4603,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3758,7 +4634,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3791,7 +4667,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -3824,7 +4700,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3857,7 +4733,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3890,7 +4766,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +4799,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3958,7 +4834,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4008,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4062,7 +4938,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4097,7 +4973,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +5006,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4161,7 +5037,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4194,7 +5070,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4227,7 +5103,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4260,7 +5136,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4293,7 +5169,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4328,7 +5204,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4359,7 +5235,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4392,7 +5268,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4427,7 +5303,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -4458,7 +5334,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4491,7 +5367,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4524,7 +5400,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4557,7 +5433,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4609,7 +5485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4663,7 +5539,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4698,7 +5574,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +5607,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4762,7 +5638,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4795,7 +5671,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4828,7 +5704,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4863,7 +5739,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4896,7 +5772,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4927,7 +5803,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4962,7 +5838,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4995,7 +5871,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5028,7 +5904,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5935,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5092,7 +5968,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5176,7 +6052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5230,7 +6106,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5265,7 +6141,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5298,7 +6174,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5331,7 +6207,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -5364,7 +6240,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5397,7 +6273,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5430,7 +6306,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5463,7 +6339,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5498,7 +6374,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -5531,7 +6407,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5564,7 +6440,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5597,7 +6473,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5630,7 +6506,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5714,7 +6590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5768,7 +6644,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5803,7 +6679,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5836,7 +6712,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5869,7 +6745,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5902,7 +6778,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5935,7 +6811,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5968,7 +6844,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6003,7 +6879,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -6036,7 +6912,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6069,7 +6945,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6104,7 +6980,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -6135,7 +7011,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -6217,443 +7093,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.85625000000000007</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.68263888888888891</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.44930555555555557</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.97430555555555554</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K13" s="3">
-        <f>SUM(K2:K12)</f>
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A11:A12"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170728" sheetId="16" r:id="rId2"/>
-    <sheet name="20170727" sheetId="15" r:id="rId3"/>
-    <sheet name="20170726" sheetId="14" r:id="rId4"/>
-    <sheet name="20170725" sheetId="13" r:id="rId5"/>
-    <sheet name="20170724" sheetId="12" r:id="rId6"/>
-    <sheet name="20170723" sheetId="11" r:id="rId7"/>
-    <sheet name="20170722" sheetId="10" r:id="rId8"/>
-    <sheet name="20170721" sheetId="8" r:id="rId9"/>
-    <sheet name="20170720" sheetId="5" r:id="rId10"/>
-    <sheet name="20170719" sheetId="7" r:id="rId11"/>
-    <sheet name="20170718" sheetId="6" r:id="rId12"/>
-    <sheet name="20170717" sheetId="4" r:id="rId13"/>
-    <sheet name="20170716" sheetId="1" r:id="rId14"/>
+    <sheet name="20170729" sheetId="17" r:id="rId2"/>
+    <sheet name="20170728" sheetId="16" r:id="rId3"/>
+    <sheet name="20170727" sheetId="15" r:id="rId4"/>
+    <sheet name="20170726" sheetId="14" r:id="rId5"/>
+    <sheet name="20170725" sheetId="13" r:id="rId6"/>
+    <sheet name="20170724" sheetId="12" r:id="rId7"/>
+    <sheet name="20170723" sheetId="11" r:id="rId8"/>
+    <sheet name="20170722" sheetId="10" r:id="rId9"/>
+    <sheet name="20170721" sheetId="8" r:id="rId10"/>
+    <sheet name="20170720" sheetId="5" r:id="rId11"/>
+    <sheet name="20170719" sheetId="7" r:id="rId12"/>
+    <sheet name="20170718" sheetId="6" r:id="rId13"/>
+    <sheet name="20170717" sheetId="4" r:id="rId14"/>
+    <sheet name="20170716" sheetId="1" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="226">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,15 +877,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青鹿与森</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邬控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/6）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（11/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（11/11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/6）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（12/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（11/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（12/20）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,12 +986,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,7 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1295,8 +1345,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K14</f>
-        <v>283.55</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12</f>
+        <v>299.55</v>
       </c>
     </row>
   </sheetData>
@@ -1307,6 +1357,511 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1360,7 +1915,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1395,7 +1950,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1983,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +2016,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1494,7 +2049,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +2082,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1560,7 +2115,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1595,7 +2150,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +2218,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1696,7 +2251,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1799,7 +2354,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1834,7 +2389,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +2422,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +2455,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1935,7 +2490,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +2523,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2589,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2069,7 +2624,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2204,7 +2759,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2239,7 +2794,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2827,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2305,7 +2860,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2338,7 +2893,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2371,7 +2926,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2404,7 +2959,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2575,7 +3130,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2610,7 +3165,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2643,7 +3198,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2676,7 +3231,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2709,7 +3264,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2846,7 +3401,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2881,7 +3436,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2914,7 +3469,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2949,7 +3504,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3003,7 +3558,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3052,104 +3607,100 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G4" s="1">
         <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>194</v>
+      <c r="J4" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3160,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -3173,43 +3724,49 @@
         <v>13</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -3218,25 +3775,29 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.44027777777777777</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3258,24 +3819,24 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>0.41736111111111113</v>
+        <v>1.1805555555555555E-2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="K8" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
@@ -3284,31 +3845,29 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -3317,123 +3876,69 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.43611111111111112</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K14" s="3">
-        <f>SUM(K2:K13)</f>
-        <v>4</v>
+      <c r="K12" s="3">
+        <f>SUM(K2:K11)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3495,42 +4000,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3888888888888888E-2</v>
+        <v>0.42083333333333334</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>194</v>
+      <c r="J2" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3541,62 +4046,62 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>195</v>
+      <c r="J4" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -3605,64 +4110,62 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>203</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K5" s="1">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3682,90 +4185,92 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3743055555555555</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>199</v>
+      <c r="J9" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -3774,62 +4279,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.43194444444444446</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>201</v>
+      <c r="J11" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3849,11 +4354,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -3862,15 +4367,14 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K13" s="3">
         <f>SUM(K2:K12)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3883,7 +4387,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3932,42 +4436,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>185</v>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3987,20 +4489,20 @@
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4020,51 +4522,51 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.34375</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.8652777777777777</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
+      <c r="J5" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4086,20 +4588,20 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4110,99 +4612,99 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H9" s="2">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -4214,28 +4716,26 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -4247,29 +4747,33 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -4278,103 +4782,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>37</v>
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4436,11 +4871,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -4449,6 +4884,510 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4471,7 +5410,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -4502,7 +5441,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4535,7 +5474,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4570,7 +5509,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4603,7 +5542,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4634,7 +5573,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4667,7 +5606,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -4700,7 +5639,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4733,7 +5672,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4766,7 +5705,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4799,7 +5738,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4834,7 +5773,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4884,7 +5823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4938,7 +5877,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4973,7 +5912,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5006,7 +5945,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -5037,7 +5976,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -5070,7 +6009,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5103,7 +6042,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5136,7 +6075,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5169,7 +6108,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5204,7 +6143,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -5235,7 +6174,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -5268,7 +6207,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5303,7 +6242,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5334,7 +6273,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5367,7 +6306,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -5400,7 +6339,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -5433,7 +6372,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5485,7 +6424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5539,7 +6478,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5574,7 +6513,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5607,7 +6546,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -5638,7 +6577,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -5671,7 +6610,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5704,7 +6643,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5739,7 +6678,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5772,7 +6711,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5803,7 +6742,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5838,7 +6777,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -5871,7 +6810,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5904,7 +6843,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5935,7 +6874,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5968,7 +6907,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6052,7 +6991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6106,7 +7045,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6141,7 +7080,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6174,7 +7113,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6207,7 +7146,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -6240,7 +7179,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6273,7 +7212,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -6306,7 +7245,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -6339,7 +7278,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6374,7 +7313,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6407,7 +7346,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6440,7 +7379,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -6473,7 +7412,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -6506,7 +7445,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -6588,509 +7527,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.30138888888888887</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58263888888888882</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.80972222222222223</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8.3333333333333332E-3</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.41111111111111115</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.34583333333333338</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.6694444444444444</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.36180555555555555</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170729" sheetId="17" r:id="rId2"/>
-    <sheet name="20170728" sheetId="16" r:id="rId3"/>
-    <sheet name="20170727" sheetId="15" r:id="rId4"/>
-    <sheet name="20170726" sheetId="14" r:id="rId5"/>
-    <sheet name="20170725" sheetId="13" r:id="rId6"/>
-    <sheet name="20170724" sheetId="12" r:id="rId7"/>
-    <sheet name="20170723" sheetId="11" r:id="rId8"/>
-    <sheet name="20170722" sheetId="10" r:id="rId9"/>
-    <sheet name="20170721" sheetId="8" r:id="rId10"/>
-    <sheet name="20170720" sheetId="5" r:id="rId11"/>
-    <sheet name="20170719" sheetId="7" r:id="rId12"/>
-    <sheet name="20170718" sheetId="6" r:id="rId13"/>
-    <sheet name="20170717" sheetId="4" r:id="rId14"/>
-    <sheet name="20170716" sheetId="1" r:id="rId15"/>
+    <sheet name="20170730" sheetId="18" r:id="rId2"/>
+    <sheet name="20170729" sheetId="17" r:id="rId3"/>
+    <sheet name="20170728" sheetId="16" r:id="rId4"/>
+    <sheet name="20170727" sheetId="15" r:id="rId5"/>
+    <sheet name="20170726" sheetId="14" r:id="rId6"/>
+    <sheet name="20170725" sheetId="13" r:id="rId7"/>
+    <sheet name="20170724" sheetId="12" r:id="rId8"/>
+    <sheet name="20170723" sheetId="11" r:id="rId9"/>
+    <sheet name="20170722" sheetId="10" r:id="rId10"/>
+    <sheet name="20170721" sheetId="8" r:id="rId11"/>
+    <sheet name="20170720" sheetId="5" r:id="rId12"/>
+    <sheet name="20170719" sheetId="7" r:id="rId13"/>
+    <sheet name="20170718" sheetId="6" r:id="rId14"/>
+    <sheet name="20170717" sheetId="4" r:id="rId15"/>
+    <sheet name="20170716" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="238">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,6 +931,53 @@
   </si>
   <si>
     <t>（12/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（13/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（12/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（12/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（13/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/6）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/10）全款付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（14/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（13/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有唱不完的歌、</t>
+  </si>
+  <si>
+    <t>酒吞童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（12/21）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,12 +1034,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1334,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1345,8 +1396,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12</f>
-        <v>299.55</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K12</f>
+        <v>320.05</v>
       </c>
     </row>
   </sheetData>
@@ -1357,6 +1408,544 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f>SUM(K2:K15)</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1410,7 +1999,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1445,7 +2034,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +2067,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +2100,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1544,7 +2133,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +2166,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +2199,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1645,7 +2234,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +2267,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +2300,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1746,7 +2335,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1777,7 +2366,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +2450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1915,7 +2504,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1950,7 +2539,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1983,7 +2572,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2605,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2049,7 +2638,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2671,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +2704,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2150,7 +2739,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2807,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2251,7 +2840,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2354,7 +2943,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2389,7 +2978,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +3011,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +3044,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2490,7 +3079,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +3112,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +3178,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2624,7 +3213,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2705,7 +3294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2759,7 +3348,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2794,7 +3383,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2827,7 +3416,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2860,7 +3449,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +3482,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2926,7 +3515,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2959,7 +3548,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3077,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3130,7 +3719,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3165,7 +3754,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3198,7 +3787,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3231,7 +3820,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3264,7 +3853,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3401,7 +3990,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3436,7 +4025,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3469,7 +4058,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3504,7 +4093,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3560,7 +4149,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3607,7 +4196,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3629,18 +4218,18 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.25</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -3660,20 +4249,20 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0.25138888888888888</v>
+        <v>8.6805555555555566E-2</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -3682,27 +4271,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.0277777777777776E-2</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -3711,29 +4304,33 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.43124999999999997</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -3742,31 +4339,31 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>0.36736111111111108</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-2</v>
+        <v>229</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -3775,29 +4372,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.44027777777777777</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6.5</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3819,53 +4412,55 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>1.1805555555555555E-2</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K8" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J9" s="4" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3889,12 +4484,12 @@
         <v>30</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3916,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.43611111111111112</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -3930,15 +4525,15 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K12" s="3">
-        <f>SUM(K2:K11)</f>
-        <v>7.5</v>
+        <f>SUM(K4:K11)</f>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3951,7 +4546,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4000,106 +4595,104 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G4" s="1">
         <v>3.5</v>
       </c>
-      <c r="H2" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="H4" s="2">
+        <v>0.76874999999999993</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="1">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4110,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -4119,55 +4712,57 @@
         <v>6.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="K5" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -4176,29 +4771,29 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H7" s="2">
-        <v>0.47222222222222227</v>
+        <v>0.44027777777777777</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K7" s="1">
-        <v>-2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4220,24 +4815,24 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>0.41736111111111113</v>
+        <v>1.1805555555555555E-2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="K8" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
@@ -4246,31 +4841,29 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -4279,27 +4872,29 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4321,60 +4916,29 @@
         <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0.43611111111111112</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K13" s="3">
-        <f>SUM(K2:K12)</f>
+      <c r="K12" s="3">
+        <f>SUM(K2:K11)</f>
         <v>12.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4436,40 +5000,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>194</v>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4480,62 +5046,62 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>195</v>
+      <c r="J4" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -4544,64 +5110,62 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>203</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K5" s="1">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4621,90 +5185,92 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3743055555555555</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>199</v>
+      <c r="J9" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -4713,62 +5279,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.43194444444444446</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>201</v>
+      <c r="J11" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4788,11 +5354,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -4801,15 +5367,14 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K13" s="3">
         <f>SUM(K2:K12)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4822,7 +5387,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4871,42 +5436,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>185</v>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4926,20 +5489,20 @@
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4959,51 +5522,51 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.34375</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.8652777777777777</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
+      <c r="J5" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5025,20 +5588,20 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5049,99 +5612,99 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H9" s="2">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -5153,28 +5716,26 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -5186,29 +5747,33 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -5217,103 +5782,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>37</v>
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5375,11 +5871,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -5388,6 +5884,510 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5410,7 +6410,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -5441,7 +6441,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5474,7 +6474,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5509,7 +6509,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5542,7 +6542,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +6573,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5606,7 +6606,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -5639,7 +6639,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5672,7 +6672,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5705,7 +6705,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5738,7 +6738,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5773,7 +6773,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5823,7 +6823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5877,7 +6877,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5912,7 +6912,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5945,7 +6945,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -5976,7 +6976,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -6009,7 +7009,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6042,7 +7042,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6075,7 +7075,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -6108,7 +7108,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6143,7 +7143,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6174,7 +7174,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6207,7 +7207,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6242,7 +7242,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -6273,7 +7273,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -6306,7 +7306,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6339,7 +7339,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6372,7 +7372,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -6424,7 +7424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6478,7 +7478,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6513,7 +7513,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6546,7 +7546,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -6577,7 +7577,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -6610,7 +7610,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6643,7 +7643,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6678,7 +7678,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -6711,7 +7711,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -6742,7 +7742,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6777,7 +7777,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6810,7 +7810,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6843,7 +7843,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -6874,7 +7874,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -6907,7 +7907,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -6989,542 +7989,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9.7222222222222224E-3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.39444444444444443</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.56805555555555554</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="1">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.72638888888888886</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.8965277777777777</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.46249999999999997</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.38958333333333334</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K16" s="3">
-        <f>SUM(K2:K15)</f>
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="249">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,6 +978,50 @@
   </si>
   <si>
     <t>（12/21）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼岸花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花鸟卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜樱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoFia_幻城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/24）预付10片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1396,8 +1440,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K12</f>
-        <v>320.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K14</f>
+        <v>350.05</v>
       </c>
     </row>
   </sheetData>
@@ -4147,9 +4191,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4356,7 +4402,7 @@
       <c r="J6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
@@ -4380,17 +4426,21 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4424,48 +4474,48 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>39</v>
-      </c>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>0.41250000000000003</v>
+        <v>0.69652777777777775</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="K9" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -4474,66 +4524,132 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="H11" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <v>0.33958333333333335</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K12" s="3">
-        <f>SUM(K4:K11)</f>
-        <v>15.5</v>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K14" s="3">
+        <f>SUM(K4:K12)</f>
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -8,28 +8,29 @@
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170730" sheetId="18" r:id="rId2"/>
-    <sheet name="20170729" sheetId="17" r:id="rId3"/>
-    <sheet name="20170728" sheetId="16" r:id="rId4"/>
-    <sheet name="20170727" sheetId="15" r:id="rId5"/>
-    <sheet name="20170726" sheetId="14" r:id="rId6"/>
-    <sheet name="20170725" sheetId="13" r:id="rId7"/>
-    <sheet name="20170724" sheetId="12" r:id="rId8"/>
-    <sheet name="20170723" sheetId="11" r:id="rId9"/>
-    <sheet name="20170722" sheetId="10" r:id="rId10"/>
-    <sheet name="20170721" sheetId="8" r:id="rId11"/>
-    <sheet name="20170720" sheetId="5" r:id="rId12"/>
-    <sheet name="20170719" sheetId="7" r:id="rId13"/>
-    <sheet name="20170718" sheetId="6" r:id="rId14"/>
-    <sheet name="20170717" sheetId="4" r:id="rId15"/>
-    <sheet name="20170716" sheetId="1" r:id="rId16"/>
+    <sheet name="20170731" sheetId="19" r:id="rId2"/>
+    <sheet name="20170730" sheetId="18" r:id="rId3"/>
+    <sheet name="20170729" sheetId="17" r:id="rId4"/>
+    <sheet name="20170728" sheetId="16" r:id="rId5"/>
+    <sheet name="20170727" sheetId="15" r:id="rId6"/>
+    <sheet name="20170726" sheetId="14" r:id="rId7"/>
+    <sheet name="20170725" sheetId="13" r:id="rId8"/>
+    <sheet name="20170724" sheetId="12" r:id="rId9"/>
+    <sheet name="20170723" sheetId="11" r:id="rId10"/>
+    <sheet name="20170722" sheetId="10" r:id="rId11"/>
+    <sheet name="20170721" sheetId="8" r:id="rId12"/>
+    <sheet name="20170720" sheetId="5" r:id="rId13"/>
+    <sheet name="20170719" sheetId="7" r:id="rId14"/>
+    <sheet name="20170718" sheetId="6" r:id="rId15"/>
+    <sheet name="20170717" sheetId="4" r:id="rId16"/>
+    <sheet name="20170716" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="255">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,10 +994,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,6 +1019,34 @@
   </si>
   <si>
     <t>（1/24）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花鸟卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoshiko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/6）全款付清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,12 +1103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1440,7 +1468,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K14</f>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15</f>
         <v>350.05</v>
       </c>
     </row>
@@ -1452,6 +1480,573 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1505,7 +2100,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1540,7 +2135,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +2168,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +2201,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -1639,7 +2234,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1672,7 +2267,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +2300,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +2333,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1773,7 +2368,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1806,7 +2401,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1839,7 +2434,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1872,7 +2467,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +2500,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2043,7 +2638,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2078,7 +2673,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2111,7 +2706,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2144,7 +2739,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2177,7 +2772,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2805,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2243,7 +2838,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2278,7 +2873,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2906,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2344,7 +2939,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2379,7 +2974,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2410,7 +3005,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +3089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2548,7 +3143,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2583,7 +3178,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2616,7 +3211,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2649,7 +3244,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2682,7 +3277,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2715,7 +3310,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2748,7 +3343,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2783,7 +3378,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +3446,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2884,7 +3479,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +3528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2987,7 +3582,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3022,7 +3617,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3650,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3088,7 +3683,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3123,7 +3718,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3156,7 +3751,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3817,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3257,7 +3852,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3338,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3392,7 +3987,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3427,7 +4022,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +4055,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3493,7 +4088,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +4121,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3559,7 +4154,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3592,7 +4187,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3710,7 +4305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3763,7 +4358,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3798,7 +4393,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3831,7 +4426,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3864,7 +4459,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3897,7 +4492,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3981,7 +4576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4034,7 +4629,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4069,7 +4664,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4102,7 +4697,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4137,7 +4732,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4191,11 +4786,9 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4242,7 +4835,465 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K4:K13)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4275,7 +5326,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -4306,7 +5357,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4339,7 +5390,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4372,7 +5423,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4407,7 +5458,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4433,14 +5484,14 @@
         <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4475,21 +5526,21 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -4501,18 +5552,18 @@
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K9" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>235</v>
@@ -4543,7 +5594,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4576,70 +5627,107 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>0.33958333333333335</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K14" s="3">
-        <f>SUM(K4:K12)</f>
+      <c r="J14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K4:K13)</f>
         <v>45.5</v>
       </c>
     </row>
@@ -4647,8 +5735,8 @@
   <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4657,7 +5745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4711,7 +5799,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4744,7 +5832,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -4775,7 +5863,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4808,7 +5896,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4841,7 +5929,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4876,7 +5964,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4944,7 +6032,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4977,7 +6065,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -5055,442 +6143,6 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A6:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.41736111111111113</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K13" s="3">
-        <f>SUM(K2:K12)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5552,40 +6204,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>194</v>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5596,62 +6250,62 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>195</v>
+      <c r="J4" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -5660,64 +6314,62 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>203</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K5" s="1">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5737,90 +6389,92 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3743055555555555</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>199</v>
+      <c r="J9" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -5829,62 +6483,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.43194444444444446</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>201</v>
+      <c r="J11" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -5904,11 +6558,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -5917,15 +6571,14 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K13" s="3">
         <f>SUM(K2:K12)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5938,7 +6591,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5987,42 +6640,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>185</v>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6042,20 +6693,20 @@
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -6075,51 +6726,51 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.34375</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.8652777777777777</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
+      <c r="J5" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6141,20 +6792,20 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -6165,99 +6816,99 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H9" s="2">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -6269,28 +6920,26 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -6302,29 +6951,33 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -6333,103 +6986,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>37</v>
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6491,11 +7075,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -6504,6 +7088,510 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6526,7 +7614,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -6557,7 +7645,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6590,7 +7678,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6625,7 +7713,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6658,7 +7746,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +7777,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6722,7 +7810,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6755,7 +7843,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6788,7 +7876,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6821,7 +7909,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -6854,7 +7942,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6889,7 +7977,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6939,7 +8027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6993,7 +8081,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7028,7 +8116,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7061,7 +8149,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -7092,7 +8180,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -7125,7 +8213,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7158,7 +8246,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7191,7 +8279,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -7224,7 +8312,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7259,7 +8347,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -7290,7 +8378,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -7323,7 +8411,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7358,7 +8446,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -7389,7 +8477,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -7422,7 +8510,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -7455,7 +8543,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -7488,7 +8576,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -7538,571 +8626,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.29791666666666666</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.69652777777777775</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.83472222222222225</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.72638888888888886</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="3">
-        <f>SUM(K2:K16)</f>
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -25,12 +25,12 @@
     <sheet name="20170717" sheetId="4" r:id="rId16"/>
     <sheet name="20170716" sheetId="1" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="266">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,7 +1046,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（6/6）全款付清</t>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/6）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（13/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（14/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/24）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（14/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（12/21）预付明天1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比熊小欢欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）预付10片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,12 +1147,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1457,9 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1468,8 +1513,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15</f>
-        <v>350.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K16</f>
+        <v>481.55</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1578,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1568,7 +1613,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1646,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -1632,7 +1677,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -1665,7 +1710,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1698,7 +1743,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1733,7 +1778,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1811,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1797,7 +1842,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1832,7 +1877,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1865,7 +1910,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1898,7 +1943,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1974,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1962,7 +2007,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2100,7 +2145,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2135,7 +2180,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2213,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2246,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2234,7 +2279,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2267,7 +2312,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2345,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2378,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2368,7 +2413,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2401,7 +2446,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2434,7 +2479,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2512,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2545,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +2683,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2673,7 +2718,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +2751,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2739,7 +2784,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2772,7 +2817,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +2850,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2838,7 +2883,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2873,7 +2918,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2951,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +2984,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2974,7 +3019,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3005,7 +3050,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +3188,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3178,7 +3223,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3211,7 +3256,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3244,7 +3289,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3277,7 +3322,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3310,7 +3355,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3388,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3378,7 +3423,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3446,7 +3491,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3479,7 +3524,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3582,7 +3627,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3617,7 +3662,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3650,7 +3695,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3683,7 +3728,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3718,7 +3763,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3751,7 +3796,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3817,7 +3862,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3852,7 +3897,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +4032,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4022,7 +4067,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4055,7 +4100,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4088,7 +4133,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4121,7 +4166,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4154,7 +4199,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4187,7 +4232,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4358,7 +4403,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4393,7 +4438,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4426,7 +4471,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4459,7 +4504,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4492,7 +4537,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4629,7 +4674,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4664,7 +4709,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4697,7 +4742,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4732,7 +4777,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4831,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4835,7 +4880,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4854,19 +4899,25 @@
         <v>99</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -4875,27 +4926,27 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>229</v>
+        <v>30</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -4904,25 +4955,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>232</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4943,17 +4994,21 @@
       <c r="G5" s="1">
         <v>6.5</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0.5756944444444444</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4982,7 +5037,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5001,19 +5056,21 @@
         <v>244</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5032,24 +5089,28 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.51736111111111105</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5058,27 +5119,31 @@
         <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.42569444444444443</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -5087,27 +5152,29 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -5116,20 +5183,22 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5150,19 +5219,23 @@
       <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.46597222222222223</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -5174,29 +5247,31 @@
         <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.47361111111111115</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>253</v>
-      </c>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -5205,24 +5280,61 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K4:K13)</f>
-        <v>0</v>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f>SUM(K2:K15)</f>
+        <v>131.5</v>
       </c>
     </row>
   </sheetData>
@@ -5231,7 +5343,7 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5293,7 +5405,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5326,7 +5438,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -5357,7 +5469,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5390,7 +5502,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5423,7 +5535,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5458,7 +5570,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5491,7 +5603,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5526,7 +5638,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -5543,7 +5655,7 @@
         <v>244</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>0.69652777777777775</v>
@@ -5559,7 +5671,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5594,7 +5706,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5627,7 +5739,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -5658,7 +5770,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5693,7 +5805,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
@@ -5799,7 +5911,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5832,7 +5944,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -5863,7 +5975,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5896,7 +6008,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5929,7 +6041,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5964,7 +6076,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6032,7 +6144,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6065,7 +6177,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6204,7 +6316,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6239,7 +6351,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6272,7 +6384,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6415,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6336,7 +6448,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
@@ -6437,7 +6549,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6472,7 +6584,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>211</v>
       </c>
@@ -6503,7 +6615,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6538,7 +6650,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -6640,7 +6752,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6673,7 +6785,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6706,7 +6818,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -6737,7 +6849,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6770,7 +6882,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6805,7 +6917,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -6838,7 +6950,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6871,7 +6983,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6904,7 +7016,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6937,7 +7049,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7075,7 +7187,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7110,7 +7222,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7143,7 +7255,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -7174,7 +7286,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7207,7 +7319,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7242,7 +7354,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7275,7 +7387,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7310,7 +7422,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7341,7 +7453,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7376,7 +7488,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -7407,7 +7519,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7440,7 +7552,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7475,7 +7587,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7579,7 +7691,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7614,7 +7726,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -7645,7 +7757,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7678,7 +7790,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7713,7 +7825,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7746,7 +7858,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7777,7 +7889,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7810,7 +7922,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -7843,7 +7955,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7876,7 +7988,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7909,7 +8021,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7942,7 +8054,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7977,7 +8089,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8081,7 +8193,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8116,7 +8228,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8149,7 +8261,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -8180,7 +8292,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -8213,7 +8325,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8246,7 +8358,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8279,7 +8391,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -8312,7 +8424,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8347,7 +8459,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -8378,7 +8490,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -8411,7 +8523,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -8446,7 +8558,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -8477,7 +8589,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8510,7 +8622,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8543,7 +8655,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -8576,7 +8688,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="271">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1091,6 +1091,26 @@
   </si>
   <si>
     <t>（1/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（15/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三生幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/44）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/20）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,15 +1167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1513,8 +1530,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K16</f>
-        <v>481.55</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K17</f>
+        <v>481.05</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1595,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1613,7 +1630,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1663,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -1677,7 +1694,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -1710,7 +1727,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1760,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1778,7 +1795,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1828,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +1859,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1877,7 +1894,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1927,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1943,7 +1960,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1974,7 +1991,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2007,7 +2024,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2162,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2180,7 +2197,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2230,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2246,7 +2263,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2279,7 +2296,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2312,7 +2329,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2345,7 +2362,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2395,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2413,7 +2430,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2463,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2479,7 +2496,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2529,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2545,7 +2562,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2683,7 +2700,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2718,7 +2735,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2751,7 +2768,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2784,7 +2801,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2817,7 +2834,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2867,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2900,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2918,7 +2935,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +2968,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2984,7 +3001,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3019,7 +3036,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3067,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3188,7 +3205,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3223,7 +3240,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3256,7 +3273,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3306,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3322,7 +3339,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3355,7 +3372,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3388,7 +3405,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3423,7 +3440,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3491,7 +3508,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3524,7 +3541,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3627,7 +3644,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3662,7 +3679,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3695,7 +3712,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3728,7 +3745,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3763,7 +3780,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3813,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3879,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3897,7 +3914,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4032,7 +4049,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4067,7 +4084,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4100,7 +4117,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4133,7 +4150,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4166,7 +4183,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4199,7 +4216,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4232,7 +4249,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +4420,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4438,7 +4455,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4471,7 +4488,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +4521,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4537,7 +4554,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4674,7 +4691,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4709,7 +4726,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4742,7 +4759,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4777,7 +4794,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4831,7 +4848,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4880,7 +4897,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4915,7 +4932,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4934,17 +4951,21 @@
       <c r="G3" s="1">
         <v>3.5</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.61944444444444446</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4973,7 +4994,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5008,7 +5029,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5037,7 +5058,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5070,7 +5091,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5103,7 +5124,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5138,7 +5159,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>249</v>
       </c>
@@ -5169,7 +5190,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5188,17 +5209,21 @@
       <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.66111111111111109</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5233,7 +5258,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5266,7 +5291,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5332,13 +5357,43 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K16" s="3">
-        <f>SUM(K2:K15)</f>
-        <v>131.5</v>
+      <c r="A16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -5405,7 +5460,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5438,7 +5493,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -5469,7 +5524,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5502,7 +5557,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5535,7 +5590,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5570,7 +5625,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5603,7 +5658,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5638,7 +5693,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -5671,7 +5726,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5706,7 +5761,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5739,7 +5794,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -5770,7 +5825,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5805,7 +5860,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
@@ -5911,7 +5966,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5944,7 +5999,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -5975,7 +6030,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6008,7 +6063,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6041,7 +6096,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6076,7 +6131,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6144,7 +6199,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6177,7 +6232,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6316,7 +6371,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6351,7 +6406,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6384,7 +6439,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6415,7 +6470,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6448,7 +6503,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
@@ -6549,7 +6604,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6584,7 +6639,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>211</v>
       </c>
@@ -6615,7 +6670,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6650,7 +6705,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -6752,7 +6807,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6785,7 +6840,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6818,7 +6873,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -6849,7 +6904,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6882,7 +6937,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6917,7 +6972,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -6950,7 +7005,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6983,7 +7038,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -7016,7 +7071,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7049,7 +7104,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7187,7 +7242,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7222,7 +7277,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7255,7 +7310,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -7286,7 +7341,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7319,7 +7374,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7354,7 +7409,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7387,7 +7442,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7422,7 +7477,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7453,7 +7508,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7488,7 +7543,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -7519,7 +7574,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7552,7 +7607,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7587,7 +7642,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7691,7 +7746,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7726,7 +7781,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -7757,7 +7812,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7790,7 +7845,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7825,7 +7880,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7858,7 +7913,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7889,7 +7944,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7922,7 +7977,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -7955,7 +8010,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7988,7 +8043,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8021,7 +8076,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -8054,7 +8109,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8089,7 +8144,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8193,7 +8248,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8228,7 +8283,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8261,7 +8316,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -8292,7 +8347,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -8325,7 +8380,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8358,7 +8413,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8391,7 +8446,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -8424,7 +8479,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8459,7 +8514,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -8490,7 +8545,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -8523,7 +8578,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -8558,7 +8613,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -8589,7 +8644,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8677,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8655,7 +8710,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -8688,7 +8743,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,33 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170731" sheetId="19" r:id="rId2"/>
-    <sheet name="20170730" sheetId="18" r:id="rId3"/>
-    <sheet name="20170729" sheetId="17" r:id="rId4"/>
-    <sheet name="20170728" sheetId="16" r:id="rId5"/>
-    <sheet name="20170727" sheetId="15" r:id="rId6"/>
-    <sheet name="20170726" sheetId="14" r:id="rId7"/>
-    <sheet name="20170725" sheetId="13" r:id="rId8"/>
-    <sheet name="20170724" sheetId="12" r:id="rId9"/>
-    <sheet name="20170723" sheetId="11" r:id="rId10"/>
-    <sheet name="20170722" sheetId="10" r:id="rId11"/>
-    <sheet name="20170721" sheetId="8" r:id="rId12"/>
-    <sheet name="20170720" sheetId="5" r:id="rId13"/>
-    <sheet name="20170719" sheetId="7" r:id="rId14"/>
-    <sheet name="20170718" sheetId="6" r:id="rId15"/>
-    <sheet name="20170717" sheetId="4" r:id="rId16"/>
-    <sheet name="20170716" sheetId="1" r:id="rId17"/>
+    <sheet name="20170802" sheetId="22" r:id="rId2"/>
+    <sheet name="20170801" sheetId="21" r:id="rId3"/>
+    <sheet name="20170731" sheetId="19" r:id="rId4"/>
+    <sheet name="20170730" sheetId="18" r:id="rId5"/>
+    <sheet name="20170729" sheetId="17" r:id="rId6"/>
+    <sheet name="20170728" sheetId="16" r:id="rId7"/>
+    <sheet name="20170727" sheetId="15" r:id="rId8"/>
+    <sheet name="20170726" sheetId="14" r:id="rId9"/>
+    <sheet name="20170725" sheetId="13" r:id="rId10"/>
+    <sheet name="20170724" sheetId="12" r:id="rId11"/>
+    <sheet name="20170723" sheetId="11" r:id="rId12"/>
+    <sheet name="20170722" sheetId="10" r:id="rId13"/>
+    <sheet name="20170721" sheetId="8" r:id="rId14"/>
+    <sheet name="20170720" sheetId="5" r:id="rId15"/>
+    <sheet name="20170719" sheetId="7" r:id="rId16"/>
+    <sheet name="20170718" sheetId="6" r:id="rId17"/>
+    <sheet name="20170717" sheetId="4" r:id="rId18"/>
+    <sheet name="20170716" sheetId="1" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="280">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1111,6 +1113,42 @@
   </si>
   <si>
     <t>（8/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫幽蝶伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷之时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若见雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usagino鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1217,6 +1255,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,8 +1574,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K17</f>
-        <v>481.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K16</f>
+        <v>485.55</v>
       </c>
     </row>
   </sheetData>
@@ -1542,6 +1586,1109 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.88402777777777775</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K18" s="3">
+        <f>SUM(K2:K17)</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1595,7 +2742,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1630,7 +2777,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +2810,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -1694,7 +2841,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -1727,7 +2874,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1760,7 +2907,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1795,7 +2942,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1828,7 +2975,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +3006,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1894,7 +3041,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1927,7 +3074,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1960,7 +3107,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +3138,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +3171,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +3255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2162,7 +3309,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2197,7 +3344,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +3377,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +3410,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2296,7 +3443,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2329,7 +3476,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2362,7 +3509,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +3542,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2430,7 +3577,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2463,7 +3610,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2496,7 +3643,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2529,7 +3676,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +3709,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2646,7 +3793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2700,7 +3847,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2735,7 +3882,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +3915,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2801,7 +3948,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2834,7 +3981,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2867,7 +4014,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2900,7 +4047,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2935,7 +4082,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +4115,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +4148,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3036,7 +4183,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +4214,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3205,7 +4352,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3240,7 +4387,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3273,7 +4420,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3306,7 +4453,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3339,7 +4486,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3372,7 +4519,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3405,7 +4552,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3440,7 +4587,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3508,7 +4655,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3541,7 +4688,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3590,7 +4737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3644,7 +4791,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3679,7 +4826,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3712,7 +4859,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +4892,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3780,7 +4927,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3813,7 +4960,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3879,7 +5026,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3914,7 +5061,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3995,7 +5142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4049,7 +5196,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4084,7 +5231,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4117,7 +5264,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4150,7 +5297,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4183,7 +5330,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4216,7 +5363,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4249,7 +5396,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +5514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4420,7 +5567,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4455,7 +5602,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +5635,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4521,7 +5668,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4554,7 +5701,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4638,7 +5785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4691,7 +5838,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4726,7 +5873,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4759,7 +5906,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4794,7 +5941,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4848,9 +5995,9 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4897,14 +6044,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4913,61 +6060,51 @@
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="1">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.29791666666666666</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -4978,23 +6115,23 @@
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
+      <c r="F4" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="G4" s="1">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>229</v>
+        <v>30</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5015,21 +6152,17 @@
       <c r="G5" s="1">
         <v>6.5</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.5756944444444444</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5058,7 +6191,1057 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="6:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5091,7 +7274,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5124,7 +7307,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5159,7 +7342,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>249</v>
       </c>
@@ -5190,7 +7373,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +7406,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5258,7 +7441,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +7474,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5348,7 +7531,9 @@
       <c r="H15" s="2">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>256</v>
       </c>
@@ -5357,43 +7542,13 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="3">
-        <f>SUM(K2:K16)</f>
-        <v>131</v>
+      <c r="K16" s="3">
+        <f>SUM(K2:K15)</f>
+        <v>135.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A15:A16"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -5406,7 +7561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5460,7 +7615,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5493,7 +7648,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -5524,7 +7679,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5557,7 +7712,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5590,7 +7745,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5625,7 +7780,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5658,7 +7813,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5693,7 +7848,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -5726,7 +7881,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5761,7 +7916,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -5794,7 +7949,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -5825,7 +7980,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5860,7 +8015,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
@@ -5912,7 +8067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5966,7 +8121,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5999,7 +8154,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -6030,7 +8185,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6063,7 +8218,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +8251,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6131,7 +8286,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6199,7 +8354,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6232,7 +8387,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6317,7 +8472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6371,7 +8526,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6406,7 +8561,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6439,7 +8594,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6470,7 +8625,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6503,7 +8658,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
@@ -6604,7 +8759,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6639,7 +8794,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>211</v>
       </c>
@@ -6670,7 +8825,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6705,7 +8860,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -6753,7 +8908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6807,7 +8962,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6840,7 +8995,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6873,7 +9028,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -6904,7 +9059,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6937,7 +9092,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6972,7 +9127,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7005,7 +9160,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7038,7 +9193,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -7071,7 +9226,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7104,7 +9259,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7188,7 +9343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7242,7 +9397,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7277,7 +9432,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7310,7 +9465,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -7341,7 +9496,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +9529,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7409,7 +9564,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7442,7 +9597,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7477,7 +9632,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7508,7 +9663,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7543,7 +9698,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -7574,7 +9729,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7607,7 +9762,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7642,7 +9797,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7690,1107 +9845,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.25486111111111109</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.54722222222222217</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.77916666666666667</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.25625000000000003</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.25625000000000003</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.72430555555555554</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.59236111111111112</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.65486111111111112</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.32013888888888892</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.52013888888888882</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.31875000000000003</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.12708333333333333</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.38819444444444445</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.77569444444444446</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.88402777777777775</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.32916666666666666</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.59583333333333333</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K18" s="3">
-        <f>SUM(K2:K17)</f>
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="282">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,6 +1149,14 @@
   </si>
   <si>
     <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoshiko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,10 +1265,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,7 +1647,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1674,7 +1682,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -1705,7 +1713,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1746,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1773,7 +1781,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1806,7 +1814,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1845,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1870,7 +1878,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1911,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1936,7 +1944,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1977,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2002,7 +2010,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2037,7 +2045,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2141,7 +2149,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2176,7 +2184,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2217,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2240,7 +2248,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2273,7 +2281,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2306,7 +2314,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2347,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2372,7 +2380,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2407,7 +2415,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2446,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2479,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2506,7 +2514,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2537,7 +2545,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2570,7 +2578,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2611,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2636,7 +2644,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2742,7 +2750,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2777,7 +2785,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2810,7 +2818,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2841,7 +2849,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2874,7 +2882,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2907,7 +2915,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2942,7 +2950,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2975,7 +2983,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3006,7 +3014,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3041,7 +3049,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3074,7 +3082,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3107,7 +3115,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3138,7 +3146,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3179,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3309,7 +3317,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3344,7 +3352,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3377,7 +3385,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3418,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3443,7 +3451,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3476,7 +3484,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3517,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3542,7 +3550,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3577,7 +3585,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3610,7 +3618,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3643,7 +3651,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3684,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3709,7 +3717,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3847,7 +3855,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3882,7 +3890,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3915,7 +3923,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3948,7 +3956,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3981,7 +3989,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4014,7 +4022,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4047,7 +4055,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4082,7 +4090,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4115,7 +4123,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4148,7 +4156,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4183,7 +4191,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4214,7 +4222,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4352,7 +4360,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4387,7 +4395,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4420,7 +4428,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4453,7 +4461,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4486,7 +4494,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4519,7 +4527,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4552,7 +4560,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4587,7 +4595,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4655,7 +4663,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4688,7 +4696,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +4799,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4826,7 +4834,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4859,7 +4867,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4892,7 +4900,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4927,7 +4935,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4960,7 +4968,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5026,7 +5034,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5061,7 +5069,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5196,7 +5204,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5231,7 +5239,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5264,7 +5272,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5297,7 +5305,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5330,7 +5338,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5363,7 +5371,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5396,7 +5404,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5567,7 +5575,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5602,7 +5610,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5635,7 +5643,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5676,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5701,7 +5709,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5838,7 +5846,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5873,7 +5881,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5906,7 +5914,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5941,7 +5949,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6044,7 +6052,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6075,7 +6083,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -6102,7 +6110,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6131,7 +6139,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6162,7 +6170,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6191,7 +6199,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6222,7 +6230,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6251,7 +6259,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -6278,7 +6286,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6307,7 +6315,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6336,7 +6344,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6367,7 +6375,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -6396,7 +6404,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -6425,7 +6433,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -6454,7 +6462,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -6512,10 +6520,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6563,7 +6571,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6594,7 +6602,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -6621,7 +6629,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6648,7 +6656,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6679,7 +6687,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6738,39 +6746,39 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>39</v>
-      </c>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>104</v>
+      <c r="J8" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>242</v>
@@ -6779,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -6790,46 +6798,44 @@
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -6838,29 +6844,27 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -6869,113 +6873,117 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="G12" s="1">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="1" t="s">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <v>3.5</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1">
-        <v>40</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6984,33 +6992,61 @@
         <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>2.5</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="3">
-        <f>SUM(K2:K16)</f>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K18" s="3">
+        <f>SUM(K2:K17)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7072,7 +7108,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7107,7 +7143,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7140,7 +7176,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7173,7 +7209,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7208,7 +7244,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7241,7 +7277,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7274,7 +7310,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -7307,7 +7343,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7342,7 +7378,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>249</v>
       </c>
@@ -7373,7 +7409,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7406,7 +7442,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7441,7 +7477,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -7474,7 +7510,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7615,7 +7651,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7648,7 +7684,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -7679,7 +7715,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7712,7 +7748,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7745,7 +7781,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7780,7 +7816,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7813,7 +7849,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7848,7 +7884,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -7881,7 +7917,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7916,7 +7952,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7949,7 +7985,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -7980,7 +8016,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8015,7 +8051,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
@@ -8121,7 +8157,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8154,7 +8190,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -8185,7 +8221,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8218,7 +8254,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8251,7 +8287,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8286,7 +8322,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8354,7 +8390,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8387,7 +8423,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -8526,7 +8562,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8561,7 +8597,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8594,7 +8630,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8625,7 +8661,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8658,7 +8694,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
@@ -8759,7 +8795,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8794,7 +8830,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>211</v>
       </c>
@@ -8825,7 +8861,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -8860,7 +8896,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -8962,7 +8998,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8995,7 +9031,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9028,7 +9064,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -9059,7 +9095,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9092,7 +9128,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9127,7 +9163,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -9160,7 +9196,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9193,7 +9229,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -9226,7 +9262,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9259,7 +9295,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9397,7 +9433,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9432,7 +9468,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9465,7 +9501,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -9496,7 +9532,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9529,7 +9565,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9564,7 +9600,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -9597,7 +9633,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9632,7 +9668,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -9663,7 +9699,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9698,7 +9734,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -9729,7 +9765,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -9762,7 +9798,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9797,7 +9833,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170802" sheetId="22" r:id="rId2"/>
+    <sheet name="20170802" sheetId="22" r:id="rId1"/>
+    <sheet name="个人资产" sheetId="2" r:id="rId2"/>
     <sheet name="20170801" sheetId="21" r:id="rId3"/>
     <sheet name="20170731" sheetId="19" r:id="rId4"/>
     <sheet name="20170730" sheetId="18" r:id="rId5"/>
@@ -27,12 +27,12 @@
     <sheet name="20170717" sheetId="4" r:id="rId18"/>
     <sheet name="20170716" sheetId="1" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="298">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1144,10 +1144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,7 +1152,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/2）</t>
+    <t>（2/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（13/18）昨天预付1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/44）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（15/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/24）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35元/18片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36元/20片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64元/34片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5元/1片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,22 +1635,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K16</f>
-        <v>485.55</v>
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="6:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6000,10 +6557,580 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1">
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17</f>
+        <v>476.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K3:K16)</f>
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6056,1062 +7183,6 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1">
-        <v>40</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="6:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="3">
-        <f>SUM(K2:K16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1">
-        <v>40</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K18" s="3">
-        <f>SUM(K2:K17)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7176,7 +7247,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7187,33 +7260,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1">
         <v>6.5</v>
       </c>
       <c r="H4" s="2">
-        <v>0.99305555555555547</v>
+        <v>0.5756944444444444</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K4" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -7222,135 +7293,135 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="G5" s="1">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.5756944444444444</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="K5" s="1">
-        <v>6.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.77708333333333324</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="H7" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.28541666666666665</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>0.51736111111111105</v>
+        <v>0.42569444444444443</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>260</v>
+      <c r="J8" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="K8" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -7359,31 +7430,29 @@
         <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -7392,94 +7461,96 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2">
-        <v>0.46597222222222223</v>
+        <v>0.47361111111111115</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -7491,31 +7562,33 @@
         <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0.47361111111111115</v>
+        <v>0.47847222222222219</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>265</v>
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="K13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="19" t="s">
+        <v>253</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -7524,72 +7597,37 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
-        <v>0.47847222222222219</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1">
-        <v>40</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K16" s="3">
-        <f>SUM(K2:K15)</f>
-        <v>135.5</v>
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="300">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1221,6 +1221,14 @@
   </si>
   <si>
     <t>2.5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（15/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/3）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6571,7 +6579,7 @@
       </c>
       <c r="B1" s="1">
         <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17</f>
-        <v>476.05</v>
+        <v>489.05</v>
       </c>
     </row>
   </sheetData>
@@ -6688,14 +6696,18 @@
       <c r="G3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.56180555555555556</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
@@ -6717,12 +6729,16 @@
       <c r="G4" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>0.5708333333333333</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
@@ -6746,14 +6762,18 @@
       <c r="G5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
@@ -7107,17 +7127,17 @@
     <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K17" s="3">
         <f>SUM(K3:K16)</f>
-        <v>-3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20170802" sheetId="22" r:id="rId1"/>
-    <sheet name="个人资产" sheetId="2" r:id="rId2"/>
+    <sheet name="个人资产" sheetId="2" r:id="rId1"/>
+    <sheet name="20170802" sheetId="23" r:id="rId2"/>
     <sheet name="20170801" sheetId="21" r:id="rId3"/>
     <sheet name="20170731" sheetId="19" r:id="rId4"/>
     <sheet name="20170730" sheetId="18" r:id="rId5"/>
@@ -27,12 +27,12 @@
     <sheet name="20170717" sheetId="4" r:id="rId18"/>
     <sheet name="20170716" sheetId="1" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="306">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,10 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/44）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大天狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1116,10 +1112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0/10）预付10片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紫幽蝶伊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,10 +1132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>usagino鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1229,6 +1217,42 @@
   </si>
   <si>
     <t>（3/3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（14/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（13/18）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neko！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25元/17片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0/17）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1335,9 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1643,515 +1664,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1">
-        <v>40</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="6:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="3">
-        <f>SUM(K2:K16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>277</v>
+        <v>38</v>
+      </c>
+      <c r="B1" s="1">
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17</f>
+        <v>489.05</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A16"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2212,7 +1742,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2247,7 +1777,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -2278,7 +1808,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2311,7 +1841,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2346,7 +1876,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +1909,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +1940,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2443,7 +1973,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2476,7 +2006,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2509,7 +2039,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2542,7 +2072,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2575,7 +2105,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2610,7 +2140,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2714,7 +2244,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2749,7 +2279,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2782,7 +2312,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2813,7 +2343,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2846,7 +2376,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2879,7 +2409,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2442,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2945,7 +2475,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2980,7 +2510,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +2541,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3044,7 +2574,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3079,7 +2609,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -3110,7 +2640,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3143,7 +2673,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +2706,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3209,7 +2739,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3315,7 +2845,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3350,7 +2880,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3383,7 +2913,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -3414,7 +2944,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3447,7 +2977,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3480,7 +3010,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3515,7 +3045,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3078,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3579,7 +3109,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3614,7 +3144,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3647,7 +3177,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3680,7 +3210,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3711,7 +3241,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3744,7 +3274,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3882,7 +3412,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3917,7 +3447,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3480,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3983,7 +3513,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4016,7 +3546,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4049,7 +3579,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +3612,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4115,7 +3645,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4150,7 +3680,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4183,7 +3713,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4216,7 +3746,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4249,7 +3779,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4282,7 +3812,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4420,7 +3950,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4455,7 +3985,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +4018,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4521,7 +4051,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4554,7 +4084,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +4117,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4620,7 +4150,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4655,7 +4185,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4688,7 +4218,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -4721,7 +4251,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4756,7 +4286,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4787,7 +4317,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4925,7 +4455,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4960,7 +4490,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4993,7 +4523,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5026,7 +4556,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5059,7 +4589,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5092,7 +4622,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5125,7 +4655,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5160,7 +4690,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5228,7 +4758,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5261,7 +4791,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5364,7 +4894,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5399,7 +4929,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5432,7 +4962,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5465,7 +4995,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5500,7 +5030,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5533,7 +5063,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5599,7 +5129,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5634,7 +5164,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5769,7 +5299,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5804,7 +5334,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5837,7 +5367,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5870,7 +5400,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5903,7 +5433,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5936,7 +5466,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5969,7 +5499,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -6140,7 +5670,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6175,7 +5705,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6208,7 +5738,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6241,7 +5771,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6274,7 +5804,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6411,7 +5941,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6446,7 +5976,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6479,7 +6009,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6514,7 +6044,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6565,36 +6095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17</f>
-        <v>489.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6644,42 +6148,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.39166666666666666</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -6690,29 +6190,25 @@
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.56180555555555556</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -6724,24 +6220,22 @@
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6760,23 +6254,19 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.55555555555555558</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6793,7 +6283,7 @@
         <v>198</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1" t="s">
@@ -6805,7 +6295,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6824,23 +6314,19 @@
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.7777777777777779E-3</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>110</v>
       </c>
@@ -6857,21 +6343,17 @@
         <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.42986111111111108</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6884,13 +6366,609 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="3">
+        <f>SUM(K2:K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H9" s="2">
         <v>2.0833333333333333E-3</v>
@@ -6904,7 +6982,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6921,21 +6999,21 @@
         <v>244</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H10" s="2">
         <v>0.3972222222222222</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -6952,19 +7030,23 @@
         <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.71388888888888891</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -6981,19 +7063,23 @@
         <v>234</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7012,21 +7098,21 @@
         <v>263</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H13" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7037,29 +7123,29 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H14" s="2">
         <v>0.45555555555555555</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K14" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7078,26 +7164,26 @@
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H15" s="2">
         <v>0.39305555555555555</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -7109,7 +7195,7 @@
         <v>267</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H16" s="2">
         <v>0.37361111111111112</v>
@@ -7118,7 +7204,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K16" s="1">
         <v>2.5</v>
@@ -7199,7 +7285,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7234,7 +7320,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7267,7 +7353,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7302,7 +7388,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7335,7 +7421,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7368,7 +7454,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7401,7 +7487,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7436,7 +7522,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>249</v>
       </c>
@@ -7467,7 +7553,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -7493,14 +7579,14 @@
         <v>30</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -7535,7 +7621,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7568,7 +7654,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -7626,7 +7712,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>256</v>
@@ -7709,7 +7795,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7742,7 +7828,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -7773,7 +7859,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7806,7 +7892,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7839,7 +7925,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7874,7 +7960,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -7907,7 +7993,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7942,7 +8028,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -7975,7 +8061,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -8010,7 +8096,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8043,7 +8129,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -8074,7 +8160,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8109,7 +8195,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
@@ -8215,7 +8301,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8248,7 +8334,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -8279,7 +8365,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8312,7 +8398,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8345,7 +8431,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8380,7 +8466,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -8448,7 +8534,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8481,7 +8567,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -8620,7 +8706,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8655,7 +8741,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8688,7 +8774,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -8719,7 +8805,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8752,7 +8838,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
@@ -8853,7 +8939,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8888,7 +8974,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>211</v>
       </c>
@@ -8919,7 +9005,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -8954,7 +9040,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -9056,7 +9142,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9089,7 +9175,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9122,7 +9208,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -9153,7 +9239,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9186,7 +9272,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9221,7 +9307,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -9254,7 +9340,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9287,7 +9373,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -9320,7 +9406,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9353,7 +9439,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9491,7 +9577,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9526,7 +9612,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9559,7 +9645,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -9590,7 +9676,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9623,7 +9709,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9658,7 +9744,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -9691,7 +9777,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9726,7 +9812,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -9757,7 +9843,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9792,7 +9878,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -9823,7 +9909,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -9856,7 +9942,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9891,7 +9977,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -8,31 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170802" sheetId="23" r:id="rId2"/>
-    <sheet name="20170801" sheetId="21" r:id="rId3"/>
-    <sheet name="20170731" sheetId="19" r:id="rId4"/>
-    <sheet name="20170730" sheetId="18" r:id="rId5"/>
-    <sheet name="20170729" sheetId="17" r:id="rId6"/>
-    <sheet name="20170728" sheetId="16" r:id="rId7"/>
-    <sheet name="20170727" sheetId="15" r:id="rId8"/>
-    <sheet name="20170726" sheetId="14" r:id="rId9"/>
-    <sheet name="20170725" sheetId="13" r:id="rId10"/>
-    <sheet name="20170724" sheetId="12" r:id="rId11"/>
-    <sheet name="20170723" sheetId="11" r:id="rId12"/>
-    <sheet name="20170722" sheetId="10" r:id="rId13"/>
-    <sheet name="20170721" sheetId="8" r:id="rId14"/>
-    <sheet name="20170720" sheetId="5" r:id="rId15"/>
-    <sheet name="20170719" sheetId="7" r:id="rId16"/>
-    <sheet name="20170718" sheetId="6" r:id="rId17"/>
-    <sheet name="20170717" sheetId="4" r:id="rId18"/>
-    <sheet name="20170716" sheetId="1" r:id="rId19"/>
+    <sheet name="20170803" sheetId="24" r:id="rId2"/>
+    <sheet name="20170802" sheetId="23" r:id="rId3"/>
+    <sheet name="20170801" sheetId="21" r:id="rId4"/>
+    <sheet name="20170731" sheetId="19" r:id="rId5"/>
+    <sheet name="20170730" sheetId="18" r:id="rId6"/>
+    <sheet name="20170729" sheetId="17" r:id="rId7"/>
+    <sheet name="20170728" sheetId="16" r:id="rId8"/>
+    <sheet name="20170727" sheetId="15" r:id="rId9"/>
+    <sheet name="20170726" sheetId="14" r:id="rId10"/>
+    <sheet name="20170725" sheetId="13" r:id="rId11"/>
+    <sheet name="20170724" sheetId="12" r:id="rId12"/>
+    <sheet name="20170723" sheetId="11" r:id="rId13"/>
+    <sheet name="20170722" sheetId="10" r:id="rId14"/>
+    <sheet name="20170721" sheetId="8" r:id="rId15"/>
+    <sheet name="20170720" sheetId="5" r:id="rId16"/>
+    <sheet name="20170719" sheetId="7" r:id="rId17"/>
+    <sheet name="20170718" sheetId="6" r:id="rId18"/>
+    <sheet name="20170717" sheetId="4" r:id="rId19"/>
+    <sheet name="20170716" sheetId="1" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="324">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1112,103 +1113,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>迷之时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若见雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoshiko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（13/18）昨天预付1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/44）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（15/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/24）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35元/18片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36元/20片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64元/34片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（15/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（14/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25元/17片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（14/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/44）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（14/18）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>紫幽蝶伊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3元/1片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（0/10）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迷之时代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若见雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yoshiko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2/10）预付10片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（13/18）昨天预付1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/10）预付10片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/44）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（15/20）18送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3/24）预付10片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1/20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35元/18片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36元/20片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.5元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64元/34片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5元/1片</t>
+    <t>（4/24）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（16/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打爆你龟壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只若初见、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起哈皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウサギの魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（16/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/17）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（15/34）32送2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1216,43 +1305,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（3/3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（14/34）32送2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（13/18）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0/1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5/18）18片35元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3元/1片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neko！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25元/17片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0/17）</t>
+    <t>（6/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（17/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/24）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/44）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,8 +1750,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17</f>
-        <v>489.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17+'20170802'!K19</f>
+        <v>499.05</v>
       </c>
     </row>
   </sheetData>
@@ -1746,6 +1819,510 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2190,7 +2767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2791,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3358,7 +3935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3896,7 +4473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4401,7 +4978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4840,7 +5417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5245,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5617,7 +6194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5888,7 +6465,543 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6093,14 +7206,649 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="3">
+        <f>SUM(K2:K18)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6152,34 +7900,38 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.39166666666666666</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -6190,25 +7942,29 @@
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>270</v>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.56180555555555556</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -6220,19 +7976,21 @@
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
@@ -6254,16 +8012,20 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
@@ -6283,16 +8045,20 @@
         <v>198</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.75208333333333333</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
@@ -6314,16 +8080,20 @@
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
@@ -6343,14 +8113,18 @@
         <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42986111111111108</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
@@ -6366,20 +8140,24 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>299</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
@@ -6399,14 +8177,18 @@
         <v>244</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.3972222222222222</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
@@ -6426,16 +8208,20 @@
         <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.71388888888888891</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
@@ -6455,16 +8241,20 @@
         <v>234</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
@@ -6486,626 +8276,14 @@
         <v>263</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="3">
-        <f>SUM(K2:K18)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.75208333333333333</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.42986111111111108</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2.0833333333333333E-3</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.71388888888888891</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -7123,22 +8301,22 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H14" s="2">
         <v>0.45555555555555555</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K14" s="1">
         <v>-3.5</v>
@@ -7164,14 +8342,14 @@
         <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H15" s="2">
         <v>0.39305555555555555</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -7195,7 +8373,7 @@
         <v>267</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H16" s="2">
         <v>0.37361111111111112</v>
@@ -7204,7 +8382,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K16" s="1">
         <v>2.5</v>
@@ -7212,7 +8390,7 @@
     </row>
     <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K17" s="3">
-        <f>SUM(K3:K16)</f>
+        <f>SUM(K2:K16)</f>
         <v>10</v>
       </c>
     </row>
@@ -7224,516 +8402,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.29791666666666666</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.77708333333333324</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.28541666666666665</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.47847222222222219</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K14" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7799,6 +8467,516 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -8247,7 +9425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -8645,442 +9823,6 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A6:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.41736111111111113</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K13" s="3">
-        <f>SUM(K2:K12)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9146,32 +9888,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>194</v>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -9186,22 +9930,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
@@ -9210,29 +9954,29 @@
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>195</v>
+      <c r="J4" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -9241,7 +9985,7 @@
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -9250,64 +9994,62 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>203</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K5" s="1">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -9327,90 +10069,92 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3743055555555555</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>199</v>
+      <c r="J9" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -9419,62 +10163,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.43194444444444446</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>201</v>
+      <c r="J11" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -9494,11 +10238,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -9507,15 +10251,14 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K13" s="3">
         <f>SUM(K2:K12)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9528,7 +10271,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9581,34 +10324,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>185</v>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -9632,13 +10373,13 @@
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
@@ -9665,11 +10406,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.34375</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -9678,34 +10419,34 @@
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.8652777777777777</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
+      <c r="J5" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -9731,13 +10472,13 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
@@ -9755,25 +10496,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -9781,65 +10522,65 @@
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K8" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -9847,7 +10588,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -9859,28 +10600,26 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -9892,29 +10631,33 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -9923,103 +10666,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>37</v>
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
@@ -28,12 +28,12 @@
     <sheet name="20170717" sheetId="4" r:id="rId19"/>
     <sheet name="20170716" sheetId="1" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="332">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1326,6 +1326,38 @@
   </si>
   <si>
     <t>（3/44）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（17/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（15/18）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/17）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（16/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/10）预付10片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6574,13 +6606,18 @@
       <c r="G3" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="H3" s="2">
+        <v>0.47986111111111113</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -6641,14 +6678,18 @@
       <c r="G5" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0.55902777777777779</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>324</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
@@ -6705,11 +6746,15 @@
       <c r="G7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.46875</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
@@ -6747,31 +6792,33 @@
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
@@ -6779,7 +6826,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -6788,46 +6835,56 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.75416666666666676</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>310</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
@@ -6851,12 +6908,16 @@
       <c r="G12" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
@@ -6878,12 +6939,16 @@
       <c r="G13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
@@ -6905,14 +6970,18 @@
       <c r="G14" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.76111111111111107</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
@@ -6983,17 +7052,17 @@
     <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K17" s="3">
         <f>SUM(K2:K16)</f>
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170803" sheetId="24" r:id="rId2"/>
-    <sheet name="20170802" sheetId="23" r:id="rId3"/>
-    <sheet name="20170801" sheetId="21" r:id="rId4"/>
-    <sheet name="20170731" sheetId="19" r:id="rId5"/>
-    <sheet name="20170730" sheetId="18" r:id="rId6"/>
-    <sheet name="20170729" sheetId="17" r:id="rId7"/>
-    <sheet name="20170728" sheetId="16" r:id="rId8"/>
-    <sheet name="20170727" sheetId="15" r:id="rId9"/>
-    <sheet name="20170726" sheetId="14" r:id="rId10"/>
-    <sheet name="20170725" sheetId="13" r:id="rId11"/>
-    <sheet name="20170724" sheetId="12" r:id="rId12"/>
-    <sheet name="20170723" sheetId="11" r:id="rId13"/>
-    <sheet name="20170722" sheetId="10" r:id="rId14"/>
-    <sheet name="20170721" sheetId="8" r:id="rId15"/>
-    <sheet name="20170720" sheetId="5" r:id="rId16"/>
-    <sheet name="20170719" sheetId="7" r:id="rId17"/>
-    <sheet name="20170718" sheetId="6" r:id="rId18"/>
-    <sheet name="20170717" sheetId="4" r:id="rId19"/>
-    <sheet name="20170716" sheetId="1" r:id="rId20"/>
+    <sheet name="20170804" sheetId="25" r:id="rId2"/>
+    <sheet name="20170803" sheetId="24" r:id="rId3"/>
+    <sheet name="20170802" sheetId="23" r:id="rId4"/>
+    <sheet name="20170801" sheetId="21" r:id="rId5"/>
+    <sheet name="20170731" sheetId="19" r:id="rId6"/>
+    <sheet name="20170730" sheetId="18" r:id="rId7"/>
+    <sheet name="20170729" sheetId="17" r:id="rId8"/>
+    <sheet name="20170728" sheetId="16" r:id="rId9"/>
+    <sheet name="20170727" sheetId="15" r:id="rId10"/>
+    <sheet name="20170726" sheetId="14" r:id="rId11"/>
+    <sheet name="20170725" sheetId="13" r:id="rId12"/>
+    <sheet name="20170724" sheetId="12" r:id="rId13"/>
+    <sheet name="20170723" sheetId="11" r:id="rId14"/>
+    <sheet name="20170722" sheetId="10" r:id="rId15"/>
+    <sheet name="20170721" sheetId="8" r:id="rId16"/>
+    <sheet name="20170720" sheetId="5" r:id="rId17"/>
+    <sheet name="20170719" sheetId="7" r:id="rId18"/>
+    <sheet name="20170718" sheetId="6" r:id="rId19"/>
+    <sheet name="20170717" sheetId="4" r:id="rId20"/>
+    <sheet name="20170716" sheetId="1" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="343">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,6 +1359,50 @@
   </si>
   <si>
     <t>（4/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（18/20）交易提前结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/44）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（16/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/10）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（17/34）32送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（18/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6/24）预付10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（16/18）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,6 +1431,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1414,7 +1467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1468,6 +1521,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1772,7 +1826,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1782,8 +1836,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17+'20170802'!K19</f>
-        <v>499.05</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17+'20170802'!K19+'20170803'!K17+'20170804'!K17</f>
+        <v>525.21</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1852,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1851,34 +1905,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>185</v>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -1902,13 +1954,13 @@
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
@@ -1935,11 +1987,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.34375</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1948,34 +2000,34 @@
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.8652777777777777</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
+      <c r="J5" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -2001,13 +2053,13 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
@@ -2025,25 +2077,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -2051,65 +2103,65 @@
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K8" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -2117,7 +2169,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -2129,28 +2181,26 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -2162,29 +2212,33 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2193,103 +2247,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>37</v>
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2355,6 +2340,510 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2799,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3400,7 +3889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3967,7 +4456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4505,7 +4994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5010,7 +5499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5449,7 +5938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5854,7 +6343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6219,277 +6708,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.3430555555555555</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.68541666666666667</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.66180555555555554</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K8" s="3">
-        <f>SUM(K2:K7)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6513,7 +6731,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
@@ -6574,13 +6792,13 @@
         <v>285</v>
       </c>
       <c r="H2" s="2">
-        <v>0.45694444444444443</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="K2" s="1">
         <v>6.5</v>
@@ -6607,13 +6825,13 @@
         <v>287</v>
       </c>
       <c r="H3" s="2">
-        <v>0.47986111111111113</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="K3" s="1">
         <v>-3</v>
@@ -6628,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -6637,31 +6855,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H4" s="2">
-        <v>0.2902777777777778</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="K4" s="1">
-        <v>-2</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -6670,25 +6888,25 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H5" s="2">
-        <v>0.55902777777777779</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="K5" s="1">
-        <v>6.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
@@ -6714,13 +6932,13 @@
         <v>283</v>
       </c>
       <c r="H6" s="2">
-        <v>0.4680555555555555</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="K6" s="1">
         <v>-2</v>
@@ -6747,10 +6965,10 @@
         <v>287</v>
       </c>
       <c r="H7" s="2">
-        <v>0.46875</v>
+        <v>0.25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -6764,35 +6982,37 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H8" s="2">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>242</v>
@@ -6801,57 +7021,52 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H9" s="2">
-        <v>0.62430555555555556</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="K9" s="1">
-        <v>-1.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.75416666666666676</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
@@ -6873,18 +7088,14 @@
       <c r="G11" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
@@ -6894,29 +7105,29 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>284</v>
       </c>
       <c r="H12" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>325</v>
+      <c r="J12" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
@@ -6925,29 +7136,29 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>284</v>
       </c>
       <c r="H13" s="2">
-        <v>0.95833333333333337</v>
+        <v>0.6</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>331</v>
+      <c r="J13" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
@@ -6970,18 +7181,14 @@
       <c r="G14" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H14" s="2">
-        <v>0.76111111111111107</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K14" s="1">
-        <v>-3.5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
@@ -7006,11 +7213,11 @@
         <v>291</v>
       </c>
       <c r="H15" s="2">
-        <v>0.46388888888888885</v>
+        <v>0.41180555555555554</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -7037,32 +7244,32 @@
         <v>292</v>
       </c>
       <c r="H16" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.41180555555555554</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K17" s="3">
         <f>SUM(K2:K16)</f>
-        <v>8</v>
+        <v>15.66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7071,6 +7278,277 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K8" s="3">
+        <f>SUM(K2:K7)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7276,6 +7754,579 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7910,7 +8961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -8471,516 +9522,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.29791666666666666</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.77708333333333324</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.28541666666666665</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.47847222222222219</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K14" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9046,6 +9587,516 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -9494,7 +10545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -9892,442 +10943,6 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A6:A7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.41736111111111113</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K13" s="3">
-        <f>SUM(K2:K12)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10393,32 +11008,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>194</v>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -10433,22 +11050,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
@@ -10457,29 +11074,29 @@
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>195</v>
+      <c r="J4" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -10488,7 +11105,7 @@
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -10497,64 +11114,62 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>203</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K5" s="1">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -10574,90 +11189,92 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3743055555555555</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>199</v>
+      <c r="J9" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -10666,62 +11283,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.43194444444444446</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>201</v>
+      <c r="J11" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -10741,11 +11358,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -10754,15 +11371,14 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K13" s="3">
         <f>SUM(K2:K12)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -1518,10 +1518,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2066,7 +2066,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2099,7 +2099,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2132,7 +2132,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2198,7 +2198,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2371,7 +2371,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2435,7 +2435,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2503,7 +2503,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2536,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2571,7 +2571,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2637,7 +2637,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2701,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2875,7 +2875,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -2906,7 +2906,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2974,7 +2974,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3071,7 +3071,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3137,7 +3137,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3342,7 +3342,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3377,7 +3377,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -3441,7 +3441,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3507,7 +3507,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3573,7 +3573,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3608,7 +3608,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3672,7 +3672,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3707,7 +3707,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +3738,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3804,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3837,7 +3837,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3943,7 +3943,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4011,7 +4011,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4075,7 +4075,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4108,7 +4108,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4143,7 +4143,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4207,7 +4207,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4242,7 +4242,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4308,7 +4308,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4339,7 +4339,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4372,7 +4372,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4510,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4545,7 +4545,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4611,7 +4611,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4644,7 +4644,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4677,7 +4677,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4710,7 +4710,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4778,7 +4778,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4811,7 +4811,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4844,7 +4844,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4877,7 +4877,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +4910,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -5048,7 +5048,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5083,7 +5083,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5116,7 +5116,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5149,7 +5149,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5182,7 +5182,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5215,7 +5215,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5248,7 +5248,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5283,7 +5283,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5316,7 +5316,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5349,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5384,7 +5384,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -5415,7 +5415,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5588,7 +5588,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5654,7 +5654,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5687,7 +5687,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +5720,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5753,7 +5753,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5788,7 +5788,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5856,7 +5856,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5889,7 +5889,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5992,7 +5992,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6027,7 +6027,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6060,7 +6060,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6093,7 +6093,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6128,7 +6128,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6161,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6227,7 +6227,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6262,7 +6262,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6397,7 +6397,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6432,7 +6432,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6465,7 +6465,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6498,7 +6498,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6531,7 +6531,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6597,7 +6597,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -6770,7 +6770,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6805,7 +6805,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6877,7 +6877,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6945,7 +6945,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -7010,7 +7010,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -7039,10 +7039,10 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="21"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7069,7 +7069,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7131,7 +7131,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -7162,7 +7162,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7224,7 +7224,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -7264,12 +7264,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7330,7 +7330,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7365,7 +7365,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7398,7 +7398,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7431,7 +7431,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7464,7 +7464,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7636,7 +7636,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7669,7 +7669,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7704,7 +7704,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7843,7 +7843,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7880,7 +7880,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7915,7 +7915,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7948,7 +7948,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7983,7 +7983,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
@@ -8013,7 +8013,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8046,7 +8046,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -8077,7 +8077,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -8110,7 +8110,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8143,7 +8143,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -8176,7 +8176,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -8207,7 +8207,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8240,7 +8240,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -8273,7 +8273,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -8381,7 +8381,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8416,7 +8416,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8447,7 +8447,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8484,7 +8484,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8519,7 +8519,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8584,7 +8584,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8650,7 +8650,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8681,7 +8681,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8714,7 +8714,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -8747,7 +8747,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8780,7 +8780,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -8842,7 +8842,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -8875,7 +8875,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8908,7 +8908,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -9016,7 +9016,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9049,7 +9049,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9082,7 +9082,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9113,7 +9113,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -9148,7 +9148,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -9181,7 +9181,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9216,7 +9216,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>110</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9280,7 +9280,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9344,7 +9344,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -9377,7 +9377,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9410,7 +9410,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -9443,7 +9443,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9476,7 +9476,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9618,7 +9618,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -9651,7 +9651,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -9686,7 +9686,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9719,7 +9719,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -9752,7 +9752,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -9785,7 +9785,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -9820,7 +9820,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>249</v>
       </c>
@@ -9851,7 +9851,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -9919,7 +9919,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -9952,7 +9952,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -10093,7 +10093,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10126,7 +10126,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -10157,7 +10157,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -10223,7 +10223,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10258,7 +10258,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -10291,7 +10291,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -10326,7 +10326,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -10359,7 +10359,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10394,7 +10394,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -10427,7 +10427,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -10458,7 +10458,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -10493,7 +10493,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
@@ -10599,7 +10599,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10632,7 +10632,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -10663,7 +10663,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10696,7 +10696,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10764,7 +10764,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10832,7 +10832,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -10865,7 +10865,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -11004,7 +11004,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -11039,7 +11039,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11072,7 +11072,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -11103,7 +11103,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11136,7 +11136,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>110</v>
       </c>
@@ -11237,7 +11237,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -11272,7 +11272,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1" t="s">
         <v>211</v>
       </c>
@@ -11303,7 +11303,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -11338,7 +11338,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>

--- a/阴阳师交易记录.xlsx
+++ b/阴阳师交易记录.xlsx
@@ -8,33 +8,34 @@
   </bookViews>
   <sheets>
     <sheet name="个人资产" sheetId="2" r:id="rId1"/>
-    <sheet name="20170804" sheetId="25" r:id="rId2"/>
-    <sheet name="20170803" sheetId="24" r:id="rId3"/>
-    <sheet name="20170802" sheetId="23" r:id="rId4"/>
-    <sheet name="20170801" sheetId="21" r:id="rId5"/>
-    <sheet name="20170731" sheetId="19" r:id="rId6"/>
-    <sheet name="20170730" sheetId="18" r:id="rId7"/>
-    <sheet name="20170729" sheetId="17" r:id="rId8"/>
-    <sheet name="20170728" sheetId="16" r:id="rId9"/>
-    <sheet name="20170727" sheetId="15" r:id="rId10"/>
-    <sheet name="20170726" sheetId="14" r:id="rId11"/>
-    <sheet name="20170725" sheetId="13" r:id="rId12"/>
-    <sheet name="20170724" sheetId="12" r:id="rId13"/>
-    <sheet name="20170723" sheetId="11" r:id="rId14"/>
-    <sheet name="20170722" sheetId="10" r:id="rId15"/>
-    <sheet name="20170721" sheetId="8" r:id="rId16"/>
-    <sheet name="20170720" sheetId="5" r:id="rId17"/>
-    <sheet name="20170719" sheetId="7" r:id="rId18"/>
-    <sheet name="20170718" sheetId="6" r:id="rId19"/>
-    <sheet name="20170717" sheetId="4" r:id="rId20"/>
-    <sheet name="20170716" sheetId="1" r:id="rId21"/>
+    <sheet name="20170805" sheetId="26" r:id="rId2"/>
+    <sheet name="20170804" sheetId="25" r:id="rId3"/>
+    <sheet name="20170803" sheetId="24" r:id="rId4"/>
+    <sheet name="20170802" sheetId="23" r:id="rId5"/>
+    <sheet name="20170801" sheetId="21" r:id="rId6"/>
+    <sheet name="20170731" sheetId="19" r:id="rId7"/>
+    <sheet name="20170730" sheetId="18" r:id="rId8"/>
+    <sheet name="20170729" sheetId="17" r:id="rId9"/>
+    <sheet name="20170728" sheetId="16" r:id="rId10"/>
+    <sheet name="20170727" sheetId="15" r:id="rId11"/>
+    <sheet name="20170726" sheetId="14" r:id="rId12"/>
+    <sheet name="20170725" sheetId="13" r:id="rId13"/>
+    <sheet name="20170724" sheetId="12" r:id="rId14"/>
+    <sheet name="20170723" sheetId="11" r:id="rId15"/>
+    <sheet name="20170722" sheetId="10" r:id="rId16"/>
+    <sheet name="20170721" sheetId="8" r:id="rId17"/>
+    <sheet name="20170720" sheetId="5" r:id="rId18"/>
+    <sheet name="20170719" sheetId="7" r:id="rId19"/>
+    <sheet name="20170718" sheetId="6" r:id="rId20"/>
+    <sheet name="20170717" sheetId="4" r:id="rId21"/>
+    <sheet name="20170716" sheetId="1" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="351">
   <si>
     <t>地狱神探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,6 +1404,38 @@
   </si>
   <si>
     <t>（16/18）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/17）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（17/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3/10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10/18）18片35元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（19/20）18送2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4/20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5/44）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1519,6 +1552,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1836,8 +1872,8 @@
         <v>38</v>
       </c>
       <c r="B1" s="1">
-        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17+'20170802'!K19+'20170803'!K17+'20170804'!K17</f>
-        <v>525.21</v>
+        <f>'20170716'!K6+'20170717'!K8+'20170718'!K11+'20170719'!K12+'20170720'!K13+'20170721'!K15+'20170722'!K16+'20170723'!K17+'20170724'!K18+'20170725'!K15+'20170726'!K15+'20170727'!K13+'20170728'!K13+'20170729'!K12+'20170730'!K15+'20170731'!K15+'20170801'!K17+'20170802'!K19+'20170803'!K17+'20170804'!K17+'20170805'!K16</f>
+        <v>516.21</v>
       </c>
     </row>
   </sheetData>
@@ -1901,40 +1937,42 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>194</v>
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1945,62 +1983,62 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1">
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>195</v>
+      <c r="J4" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2009,64 +2047,62 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>203</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K5" s="1">
-        <v>-3.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K6" s="1">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2086,90 +2122,92 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K7" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>0.3743055555555555</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>199</v>
+      <c r="J9" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="K9" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -2178,62 +2216,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>0.43194444444444446</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>201</v>
+      <c r="J11" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2253,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -2266,15 +2304,14 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K13" s="3">
         <f>SUM(K2:K12)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2287,7 +2324,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2336,42 +2373,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.40208333333333335</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>185</v>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K2" s="1">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2391,20 +2426,20 @@
         <v>6.5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -2424,51 +2459,51 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.34375</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="2">
-        <v>0.8652777777777777</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
+      <c r="J5" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="1">
-        <v>24</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2490,20 +2525,20 @@
         <v>6.5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.43958333333333338</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="K6" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2514,99 +2549,99 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K7" s="1">
-        <v>-4.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H9" s="2">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -2618,28 +2653,26 @@
         <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.40416666666666662</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -2651,29 +2684,33 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2682,103 +2719,34 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0.97152777777777777</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>37</v>
+      <c r="K13" s="3">
+        <f>SUM(K2:K12)</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2840,11 +2808,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -2853,6 +2821,510 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8652777777777777</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2875,7 +3347,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -2906,7 +3378,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +3411,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2974,7 +3446,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3007,7 +3479,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3038,7 +3510,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3071,7 +3543,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3576,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3137,7 +3609,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3170,7 +3642,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3203,7 +3675,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3238,7 +3710,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -3288,7 +3760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3342,7 +3814,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3377,7 +3849,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3882,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -3441,7 +3913,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3474,7 +3946,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3507,7 +3979,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +4012,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3573,7 +4045,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3608,7 +4080,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3639,7 +4111,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3672,7 +4144,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3707,7 +4179,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -3738,7 +4210,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +4243,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +4276,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3837,7 +4309,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3889,7 +4361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3943,7 +4415,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3978,7 +4450,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4011,7 +4483,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4042,7 +4514,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4075,7 +4547,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4108,7 +4580,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4143,7 +4615,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4176,7 +4648,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4207,7 +4679,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4242,7 +4714,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4275,7 +4747,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4308,7 +4780,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4339,7 +4811,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4372,7 +4844,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4456,7 +4928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4510,7 +4982,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4545,7 +5017,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +5050,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4611,7 +5083,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -4644,7 +5116,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4677,7 +5149,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4710,7 +5182,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4743,7 +5215,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4778,7 +5250,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4811,7 +5283,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4844,7 +5316,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4877,7 +5349,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +5382,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4994,7 +5466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5048,7 +5520,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5083,7 +5555,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5116,7 +5588,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5149,7 +5621,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5182,7 +5654,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5215,7 +5687,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5248,7 +5720,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5283,7 +5755,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5316,7 +5788,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5821,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5384,7 +5856,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -5415,7 +5887,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -5499,7 +5971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5553,7 +6025,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5588,7 +6060,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5621,7 +6093,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5654,7 +6126,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5687,7 +6159,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +6192,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5753,7 +6225,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5788,7 +6260,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -5856,7 +6328,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5889,7 +6361,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5938,7 +6410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5992,7 +6464,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6027,7 +6499,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6060,7 +6532,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6093,7 +6565,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6128,7 +6600,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6633,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6227,7 +6699,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6262,7 +6734,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6343,7 +6815,519 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f>SUM(K2:K15)</f>
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6397,7 +7381,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6432,7 +7416,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6465,7 +7449,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6498,7 +7482,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6531,7 +7515,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6564,7 +7548,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6597,7 +7581,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -6715,569 +7699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:O17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-3</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.41180555555555554</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K17" s="3">
-        <f>SUM(K2:K16)</f>
-        <v>15.66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7330,7 +7752,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7365,7 +7787,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7398,7 +7820,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7431,7 +7853,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7464,7 +7886,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7548,7 +7970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7601,7 +8023,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7636,7 +8058,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7669,7 +8091,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7704,7 +8126,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7769,7 +8191,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
@@ -7808,7 +8230,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7830,20 +8252,20 @@
         <v>285</v>
       </c>
       <c r="H2" s="2">
-        <v>0.45694444444444443</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="K2" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -7863,13 +8285,13 @@
         <v>287</v>
       </c>
       <c r="H3" s="2">
-        <v>0.47986111111111113</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="K3" s="1">
         <v>-3</v>
@@ -7880,11 +8302,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -7893,31 +8315,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H4" s="2">
-        <v>0.2902777777777778</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="K4" s="1">
-        <v>-2</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -7926,29 +8348,29 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H5" s="2">
-        <v>0.55902777777777779</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="K5" s="1">
-        <v>6.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7970,20 +8392,20 @@
         <v>283</v>
       </c>
       <c r="H6" s="2">
-        <v>0.4680555555555555</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="K6" s="1">
         <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
@@ -8003,52 +8425,54 @@
         <v>287</v>
       </c>
       <c r="H7" s="2">
-        <v>0.46875</v>
+        <v>0.25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H8" s="2">
-        <v>0.45277777777777778</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>242</v>
@@ -8057,60 +8481,59 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H9" s="2">
-        <v>0.62430555555555556</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="4" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="1">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.75416666666666676</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-    </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8136,78 +8559,78 @@
         <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>284</v>
       </c>
       <c r="H12" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>325</v>
+      <c r="J12" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>284</v>
       </c>
       <c r="H13" s="2">
-        <v>0.95833333333333337</v>
+        <v>0.6</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>331</v>
+      <c r="J13" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -8227,20 +8650,20 @@
         <v>290</v>
       </c>
       <c r="H14" s="2">
-        <v>0.76111111111111107</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K14" s="1">
         <v>-3.5</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -8262,18 +8685,18 @@
         <v>291</v>
       </c>
       <c r="H15" s="2">
-        <v>0.46388888888888885</v>
+        <v>0.41180555555555554</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -8293,13 +8716,13 @@
         <v>292</v>
       </c>
       <c r="H16" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.41180555555555554</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="K16" s="1">
         <v>2.5</v>
@@ -8308,7 +8731,7 @@
     <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="K17" s="3">
         <f>SUM(K2:K16)</f>
-        <v>10.5</v>
+        <v>10.66</v>
       </c>
     </row>
   </sheetData>
@@ -8327,6 +8750,579 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f>SUM(K2:K16)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -8381,7 +9377,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8416,7 +9412,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8447,7 +9443,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8484,7 +9480,7 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8519,7 +9515,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8552,7 +9548,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8584,7 +9580,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -8617,7 +9613,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8650,7 +9646,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8681,7 +9677,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8714,7 +9710,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -8747,7 +9743,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -8780,7 +9776,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8811,7 +9807,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -8842,7 +9838,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -8875,7 +9871,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>253</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8908,7 +9904,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +9957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -9016,7 +10012,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -9049,7 +10045,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9082,7 +10078,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9113,7 +10109,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -9148,7 +10144,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -9181,7 +10177,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9216,7 +10212,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>110</v>
       </c>
@@ -9247,7 +10243,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -9280,7 +10276,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -9311,7 +10307,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -9344,7 +10340,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -9377,7 +10373,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -9410,7 +10406,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -9443,7 +10439,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9476,7 +10472,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -9522,516 +10518,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.29791666666666666</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.5756944444444444</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.77708333333333324</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.28541666666666665</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.42569444444444443</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.42638888888888887</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.47847222222222219</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K14" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="3">
-        <f>SUM(K2:K14)</f>
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10093,7 +10579,517 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.66111111111111109</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f>SUM(K2:K14)</f>
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10126,7 +11122,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -10157,7 +11153,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -10190,7 +11186,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -10223,7 +11219,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10258,7 +11254,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -10291,7 +11287,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -10326,7 +11322,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -10359,7 +11355,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -10394,7 +11390,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -10427,7 +11423,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
@@ -10458,7 +11454,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -10493,7 +11489,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
@@ -10545,7 +11541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -10599,7 +11595,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10632,7 +11628,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
@@ -10663,7 +11659,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10696,7 +11692,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10729,7 +11725,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -10764,7 +11760,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -10832,7 +11828,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -10865,7 +11861,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -10948,440 +11944,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.42083333333333334</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>216</v>
-      </